--- a/Nellore_Data.xlsx
+++ b/Nellore_Data.xlsx
@@ -8,13 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Nellore\project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{795C812C-427A-4918-A67D-6442AEC5C85C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10AD0870-F4A9-4905-B539-3B8709A9B1DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Invoice_Data" sheetId="1" r:id="rId1"/>
     <sheet name="PO_Data" sheetId="2" r:id="rId2"/>
+    <sheet name="Payments" sheetId="5" r:id="rId3"/>
+    <sheet name="Expenditure" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -26,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="92">
   <si>
     <t>S No</t>
   </si>
@@ -34,12 +36,6 @@
     <t>Ticket No.</t>
   </si>
   <si>
-    <t>Invoice No.</t>
-  </si>
-  <si>
-    <t>Invoice Date</t>
-  </si>
-  <si>
     <t>Vehicle No.</t>
   </si>
   <si>
@@ -133,9 +129,6 @@
     <t>240941989 </t>
   </si>
   <si>
-    <t>Driver Name</t>
-  </si>
-  <si>
     <t>Kasi</t>
   </si>
   <si>
@@ -212,6 +205,105 @@
   </si>
   <si>
     <t>E-Way Bill Date</t>
+  </si>
+  <si>
+    <t>TOTAL</t>
+  </si>
+  <si>
+    <t>Payment Mode</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vehicle Rent	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JCB Rent	</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>Credit</t>
+  </si>
+  <si>
+    <t>Debit</t>
+  </si>
+  <si>
+    <t>Check</t>
+  </si>
+  <si>
+    <t>Rajaiah Lahishetty</t>
+  </si>
+  <si>
+    <t>RA Rao</t>
+  </si>
+  <si>
+    <t>BHIM UPI</t>
+  </si>
+  <si>
+    <t>Account Transfer</t>
+  </si>
+  <si>
+    <t>Naveen Pettem</t>
+  </si>
+  <si>
+    <t>Balance</t>
+  </si>
+  <si>
+    <t>Kasi Vishwanathan Raja</t>
+  </si>
+  <si>
+    <t>Phone Pay</t>
+  </si>
+  <si>
+    <t>The Madras Pinjrapole</t>
+  </si>
+  <si>
+    <t>Mobile No.</t>
+  </si>
+  <si>
+    <t>Vamshi</t>
+  </si>
+  <si>
+    <t>MTns</t>
+  </si>
+  <si>
+    <t>Supervisor</t>
+  </si>
+  <si>
+    <t>Cow Dung</t>
+  </si>
+  <si>
+    <t>Other</t>
+  </si>
+  <si>
+    <t>Bill</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Driver Batha	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Diesel for Trip	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tollgate	</t>
+  </si>
+  <si>
+    <t>Profit</t>
+  </si>
+  <si>
+    <t>Transporter Name</t>
+  </si>
+  <si>
+    <t>Bill Date</t>
+  </si>
+  <si>
+    <t>Bill No.</t>
+  </si>
+  <si>
+    <t>WGL/SGSL/A-0338</t>
+  </si>
+  <si>
+    <t>Not Submitted</t>
   </si>
 </sst>
 </file>
@@ -243,7 +335,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -266,11 +358,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -309,6 +414,51 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -589,10 +739,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L12"/>
+  <dimension ref="A1:L13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L12" sqref="L12"/>
+      <selection activeCell="L14" sqref="L14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -600,14 +750,14 @@
     <col min="1" max="1" width="5.6640625" style="2" customWidth="1"/>
     <col min="2" max="2" width="17.109375" customWidth="1"/>
     <col min="3" max="3" width="12.109375" customWidth="1"/>
-    <col min="4" max="4" width="12" customWidth="1"/>
+    <col min="4" max="4" width="16.6640625" customWidth="1"/>
     <col min="5" max="6" width="13.88671875" customWidth="1"/>
     <col min="7" max="7" width="15.21875" customWidth="1"/>
     <col min="8" max="8" width="11.109375" customWidth="1"/>
     <col min="9" max="9" width="15.6640625" customWidth="1"/>
     <col min="10" max="10" width="15.77734375" customWidth="1"/>
     <col min="11" max="11" width="16.88671875" customWidth="1"/>
-    <col min="12" max="12" width="11.77734375" customWidth="1"/>
+    <col min="12" max="12" width="13" customWidth="1"/>
     <col min="13" max="13" width="20.21875" customWidth="1"/>
   </cols>
   <sheetData>
@@ -616,37 +766,37 @@
         <v>0</v>
       </c>
       <c r="B1" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="E1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>4</v>
-      </c>
       <c r="F1" s="5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="H1" s="5" t="s">
         <v>1</v>
       </c>
       <c r="I1" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="K1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="J1" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="K1" s="5" t="s">
-        <v>7</v>
-      </c>
       <c r="L1" s="5" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.3">
@@ -654,21 +804,23 @@
         <v>1</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C2" s="15">
         <v>45931</v>
       </c>
       <c r="D2" s="13" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="E2" s="13" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="F2" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="G2" s="13"/>
+        <v>22</v>
+      </c>
+      <c r="G2" s="13" t="s">
+        <v>22</v>
+      </c>
       <c r="H2" s="13">
         <v>135</v>
       </c>
@@ -682,7 +834,7 @@
         <v>41882</v>
       </c>
       <c r="L2" s="13" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
@@ -690,21 +842,23 @@
         <v>2</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C3" s="15">
         <v>45936</v>
       </c>
       <c r="D3" s="15" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="E3" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="F3" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="F3" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="G3" s="13"/>
+      <c r="G3" s="13" t="s">
+        <v>22</v>
+      </c>
       <c r="H3" s="13">
         <v>163</v>
       </c>
@@ -718,7 +872,7 @@
         <v>40046</v>
       </c>
       <c r="L3" s="13" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
@@ -726,21 +880,23 @@
         <v>3</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C4" s="15">
         <v>45937</v>
       </c>
       <c r="D4" s="15" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="E4" s="13" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F4" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="G4" s="13"/>
+        <v>55</v>
+      </c>
+      <c r="G4" s="13" t="s">
+        <v>22</v>
+      </c>
       <c r="H4" s="13">
         <v>167</v>
       </c>
@@ -754,7 +910,7 @@
         <v>60242</v>
       </c>
       <c r="L4" s="13" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
@@ -762,21 +918,23 @@
         <v>4</v>
       </c>
       <c r="B5" s="13" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C5" s="15">
         <v>45938</v>
       </c>
       <c r="D5" s="15" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="E5" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="F5" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="F5" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="G5" s="13"/>
+      <c r="G5" s="13" t="s">
+        <v>22</v>
+      </c>
       <c r="H5" s="13">
         <v>174</v>
       </c>
@@ -790,7 +948,7 @@
         <v>43200</v>
       </c>
       <c r="L5" s="13" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
@@ -798,21 +956,23 @@
         <v>5</v>
       </c>
       <c r="B6" s="13" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C6" s="15">
         <v>45939</v>
       </c>
       <c r="D6" s="15" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="E6" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="F6" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="F6" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="G6" s="13"/>
+      <c r="G6" s="13" t="s">
+        <v>22</v>
+      </c>
       <c r="H6" s="13">
         <v>183</v>
       </c>
@@ -826,7 +986,7 @@
         <v>43372</v>
       </c>
       <c r="L6" s="13" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
@@ -834,21 +994,23 @@
         <v>6</v>
       </c>
       <c r="B7" s="13" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C7" s="15">
         <v>45939</v>
       </c>
       <c r="D7" s="15" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="E7" s="13" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F7" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="G7" s="13"/>
+        <v>14</v>
+      </c>
+      <c r="G7" s="13" t="s">
+        <v>22</v>
+      </c>
       <c r="H7" s="13">
         <v>184</v>
       </c>
@@ -862,7 +1024,7 @@
         <v>59680</v>
       </c>
       <c r="L7" s="13" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.3">
@@ -870,21 +1032,23 @@
         <v>7</v>
       </c>
       <c r="B8" s="13" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C8" s="15">
         <v>45939</v>
       </c>
       <c r="D8" s="15" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="E8" s="13" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F8" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="G8" s="13"/>
+        <v>15</v>
+      </c>
+      <c r="G8" s="13" t="s">
+        <v>22</v>
+      </c>
       <c r="H8" s="13">
         <v>185</v>
       </c>
@@ -898,7 +1062,7 @@
         <v>58514</v>
       </c>
       <c r="L8" s="13" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.3">
@@ -906,21 +1070,23 @@
         <v>8</v>
       </c>
       <c r="B9" s="13" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C9" s="15">
         <v>45940</v>
       </c>
       <c r="D9" s="15" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="E9" s="13" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F9" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="G9" s="13"/>
+        <v>38</v>
+      </c>
+      <c r="G9" s="13" t="s">
+        <v>22</v>
+      </c>
       <c r="H9" s="13">
         <v>192</v>
       </c>
@@ -934,7 +1100,7 @@
         <v>56851</v>
       </c>
       <c r="L9" s="13" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.3">
@@ -942,21 +1108,23 @@
         <v>9</v>
       </c>
       <c r="B10" s="13" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C10" s="15">
         <v>45940</v>
       </c>
       <c r="D10" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="E10" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="F10" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="E10" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="F10" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="G10" s="13"/>
+      <c r="G10" s="13" t="s">
+        <v>22</v>
+      </c>
       <c r="H10" s="13">
         <v>193</v>
       </c>
@@ -970,7 +1138,7 @@
         <v>56635</v>
       </c>
       <c r="L10" s="13" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.3">
@@ -978,21 +1146,23 @@
         <v>10</v>
       </c>
       <c r="B11" s="13" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C11" s="15">
         <v>45940</v>
       </c>
       <c r="D11" s="15" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="E11" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="F11" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="F11" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="G11" s="13"/>
+      <c r="G11" s="13" t="s">
+        <v>22</v>
+      </c>
       <c r="H11" s="13">
         <v>194</v>
       </c>
@@ -1006,30 +1176,75 @@
         <v>43999</v>
       </c>
       <c r="L11" s="13" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A12" s="7"/>
-      <c r="B12" s="13"/>
-      <c r="C12" s="13"/>
-      <c r="D12" s="13"/>
-      <c r="E12" s="13"/>
-      <c r="F12" s="13"/>
-      <c r="G12" s="13"/>
-      <c r="H12" s="13"/>
-      <c r="I12" s="13"/>
-      <c r="J12" s="13">
-        <f>SUM(J2:J11)</f>
-        <v>233.53</v>
-      </c>
-      <c r="K12" s="13">
-        <f>SUM(K2:K11)</f>
-        <v>504421</v>
-      </c>
-      <c r="L12" s="13"/>
+      <c r="A12" s="31">
+        <v>11</v>
+      </c>
+      <c r="B12" s="32" t="s">
+        <v>90</v>
+      </c>
+      <c r="C12" s="33">
+        <v>45942</v>
+      </c>
+      <c r="D12" s="33" t="s">
+        <v>35</v>
+      </c>
+      <c r="E12" s="32" t="s">
+        <v>20</v>
+      </c>
+      <c r="F12" s="32" t="s">
+        <v>22</v>
+      </c>
+      <c r="G12" s="32" t="s">
+        <v>22</v>
+      </c>
+      <c r="H12" s="32">
+        <v>207</v>
+      </c>
+      <c r="I12" s="33">
+        <v>45942</v>
+      </c>
+      <c r="J12" s="32">
+        <v>23.04</v>
+      </c>
+      <c r="K12" s="32">
+        <v>49766</v>
+      </c>
+      <c r="L12" s="32" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A13" s="7">
+        <v>100</v>
+      </c>
+      <c r="B13" s="34" t="s">
+        <v>59</v>
+      </c>
+      <c r="C13" s="34"/>
+      <c r="D13" s="34"/>
+      <c r="E13" s="34"/>
+      <c r="F13" s="34"/>
+      <c r="G13" s="34"/>
+      <c r="H13" s="34"/>
+      <c r="I13" s="34"/>
+      <c r="J13" s="13">
+        <f>SUM(J2:J12)</f>
+        <v>256.57</v>
+      </c>
+      <c r="K13" s="13">
+        <f>SUM(K2:K12)</f>
+        <v>554187</v>
+      </c>
+      <c r="L13" s="13"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B13:I13"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1038,7 +1253,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{505FCDB2-73B9-45B2-B3F5-A5A11CBB441D}">
   <dimension ref="A1:C16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
@@ -1054,10 +1269,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
@@ -1065,10 +1280,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
@@ -1076,7 +1291,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C3" s="9">
         <v>45859</v>
@@ -1087,10 +1302,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
@@ -1098,10 +1313,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
@@ -1109,10 +1324,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
@@ -1120,10 +1335,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
@@ -1131,7 +1346,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C8" s="10">
         <v>31010091</v>
@@ -1142,7 +1357,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C9" s="11">
         <v>12960000</v>
@@ -1153,7 +1368,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C10" s="10">
         <v>6000</v>
@@ -1164,7 +1379,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C11" s="10">
         <v>233.53</v>
@@ -1175,7 +1390,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C12" s="3">
         <v>5766.47</v>
@@ -1186,10 +1401,10 @@
         <v>12</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C13" s="12" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
@@ -1197,10 +1412,10 @@
         <v>13</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
@@ -1208,10 +1423,10 @@
         <v>14</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C15" s="13" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
@@ -1219,14 +1434,992 @@
         <v>15</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C16" s="14" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{100B4ED9-C387-47BC-8EF7-F2DAC64DD522}">
+  <dimension ref="A1:H10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="10.77734375" customWidth="1"/>
+    <col min="3" max="3" width="11.5546875" customWidth="1"/>
+    <col min="4" max="4" width="12.77734375" customWidth="1"/>
+    <col min="5" max="5" width="11.109375" customWidth="1"/>
+    <col min="6" max="6" width="17.33203125" customWidth="1"/>
+    <col min="7" max="7" width="12" customWidth="1"/>
+    <col min="8" max="8" width="25.44140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" s="7">
+        <v>1</v>
+      </c>
+      <c r="B2" s="15">
+        <v>45937</v>
+      </c>
+      <c r="C2" s="24">
+        <v>900000</v>
+      </c>
+      <c r="D2" s="24">
+        <v>0</v>
+      </c>
+      <c r="E2" s="24">
+        <v>900000</v>
+      </c>
+      <c r="F2" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="G2" s="13"/>
+      <c r="H2" s="13" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" s="7">
+        <v>2</v>
+      </c>
+      <c r="B3" s="15">
+        <v>45938</v>
+      </c>
+      <c r="C3" s="24">
+        <v>0</v>
+      </c>
+      <c r="D3" s="24">
+        <v>350000</v>
+      </c>
+      <c r="E3" s="24">
+        <v>550000</v>
+      </c>
+      <c r="F3" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="G3" s="13"/>
+      <c r="H3" s="13" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" s="20" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="27">
+        <v>3</v>
+      </c>
+      <c r="B4" s="28">
+        <v>45938</v>
+      </c>
+      <c r="C4" s="29">
+        <v>0</v>
+      </c>
+      <c r="D4" s="29">
+        <v>50000</v>
+      </c>
+      <c r="E4" s="29">
+        <v>500000</v>
+      </c>
+      <c r="F4" s="25" t="s">
+        <v>69</v>
+      </c>
+      <c r="G4" s="25">
+        <v>9177417111</v>
+      </c>
+      <c r="H4" s="25" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" s="7">
+        <v>4</v>
+      </c>
+      <c r="B5" s="15">
+        <v>45938</v>
+      </c>
+      <c r="C5" s="26">
+        <v>0</v>
+      </c>
+      <c r="D5" s="26">
+        <v>100000</v>
+      </c>
+      <c r="E5" s="24">
+        <v>400000</v>
+      </c>
+      <c r="F5" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="G5" s="13"/>
+      <c r="H5" s="13" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" s="7">
+        <v>5</v>
+      </c>
+      <c r="B6" s="15">
+        <v>45939</v>
+      </c>
+      <c r="C6" s="24">
+        <v>0</v>
+      </c>
+      <c r="D6" s="24">
+        <v>20000</v>
+      </c>
+      <c r="E6" s="24">
+        <v>380000</v>
+      </c>
+      <c r="F6" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="G6" s="13">
+        <v>7904162873</v>
+      </c>
+      <c r="H6" s="13" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7" s="7">
+        <v>6</v>
+      </c>
+      <c r="B7" s="15">
+        <v>45939</v>
+      </c>
+      <c r="C7" s="24">
+        <v>0</v>
+      </c>
+      <c r="D7" s="24">
+        <v>15664</v>
+      </c>
+      <c r="E7" s="24">
+        <v>364336</v>
+      </c>
+      <c r="F7" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="G7" s="13">
+        <v>7904162873</v>
+      </c>
+      <c r="H7" s="13" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8" s="7">
+        <v>7</v>
+      </c>
+      <c r="B8" s="15">
+        <v>45940</v>
+      </c>
+      <c r="C8" s="24">
+        <v>0</v>
+      </c>
+      <c r="D8" s="24">
+        <v>30048</v>
+      </c>
+      <c r="E8" s="24">
+        <v>334288</v>
+      </c>
+      <c r="F8" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="G8" s="13">
+        <v>7904162873</v>
+      </c>
+      <c r="H8" s="13" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9" s="7">
+        <v>8</v>
+      </c>
+      <c r="B9" s="15">
+        <v>45940</v>
+      </c>
+      <c r="C9" s="24">
+        <v>0</v>
+      </c>
+      <c r="D9" s="24">
+        <v>30000</v>
+      </c>
+      <c r="E9" s="24">
+        <v>304288</v>
+      </c>
+      <c r="F9" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="G9" s="13">
+        <v>7904162873</v>
+      </c>
+      <c r="H9" s="13" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A10" s="7">
+        <v>9</v>
+      </c>
+      <c r="B10" s="15">
+        <v>45941</v>
+      </c>
+      <c r="C10" s="24">
+        <v>0</v>
+      </c>
+      <c r="D10" s="24">
+        <v>40000</v>
+      </c>
+      <c r="E10" s="24">
+        <v>264288</v>
+      </c>
+      <c r="F10" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="G10" s="13">
+        <v>9080408021</v>
+      </c>
+      <c r="H10" s="13" t="s">
+        <v>75</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38E521D2-0E53-43DA-846D-54C42DBE6A26}">
+  <dimension ref="A1:O13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q13" sqref="Q13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="6.33203125" style="16" customWidth="1"/>
+    <col min="2" max="2" width="12.21875" customWidth="1"/>
+    <col min="3" max="3" width="15.77734375" customWidth="1"/>
+    <col min="4" max="4" width="7.88671875" customWidth="1"/>
+    <col min="5" max="5" width="10.21875" customWidth="1"/>
+    <col min="6" max="6" width="11.44140625" customWidth="1"/>
+    <col min="7" max="7" width="12.5546875" customWidth="1"/>
+    <col min="8" max="8" width="12.21875" customWidth="1"/>
+    <col min="9" max="9" width="8.77734375" customWidth="1"/>
+    <col min="10" max="10" width="10.33203125" customWidth="1"/>
+    <col min="11" max="11" width="8.5546875" customWidth="1"/>
+    <col min="12" max="12" width="7.21875" customWidth="1"/>
+    <col min="13" max="13" width="9" customWidth="1"/>
+    <col min="14" max="14" width="12.33203125" customWidth="1"/>
+    <col min="15" max="15" width="12" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" s="17" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="C1" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="17" t="s">
+        <v>78</v>
+      </c>
+      <c r="E1" s="17" t="s">
+        <v>80</v>
+      </c>
+      <c r="F1" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="G1" s="17" t="s">
+        <v>83</v>
+      </c>
+      <c r="H1" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="I1" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="J1" s="17" t="s">
+        <v>79</v>
+      </c>
+      <c r="K1" s="22" t="s">
+        <v>85</v>
+      </c>
+      <c r="L1" s="17" t="s">
+        <v>81</v>
+      </c>
+      <c r="M1" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="N1" s="17" t="s">
+        <v>82</v>
+      </c>
+      <c r="O1" s="17" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A2" s="16">
+        <v>1</v>
+      </c>
+      <c r="B2" s="18">
+        <v>45931</v>
+      </c>
+      <c r="C2" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="D2">
+        <v>19.39</v>
+      </c>
+      <c r="E2">
+        <f>D2*400</f>
+        <v>7756</v>
+      </c>
+      <c r="F2">
+        <v>10000</v>
+      </c>
+      <c r="G2">
+        <v>1000</v>
+      </c>
+      <c r="H2">
+        <v>10000</v>
+      </c>
+      <c r="I2">
+        <v>2000</v>
+      </c>
+      <c r="J2">
+        <v>700</v>
+      </c>
+      <c r="K2">
+        <v>300</v>
+      </c>
+      <c r="L2">
+        <v>200</v>
+      </c>
+      <c r="M2">
+        <f>E2+F2+G2+H2+I2+J2+K2+L2</f>
+        <v>31956</v>
+      </c>
+      <c r="N2" s="19">
+        <f>D2*2160</f>
+        <v>41882.400000000001</v>
+      </c>
+      <c r="O2" s="19">
+        <f>N2-M2</f>
+        <v>9926.4000000000015</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A3" s="16">
+        <v>2</v>
+      </c>
+      <c r="B3" s="18">
+        <v>45936</v>
+      </c>
+      <c r="C3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3">
+        <v>18.54</v>
+      </c>
+      <c r="E3">
+        <f t="shared" ref="E3:E12" si="0">D3*400</f>
+        <v>7416</v>
+      </c>
+      <c r="F3">
+        <v>10000</v>
+      </c>
+      <c r="G3">
+        <v>1000</v>
+      </c>
+      <c r="H3">
+        <v>16000</v>
+      </c>
+      <c r="I3">
+        <v>2000</v>
+      </c>
+      <c r="J3">
+        <v>700</v>
+      </c>
+      <c r="K3">
+        <v>300</v>
+      </c>
+      <c r="L3">
+        <v>200</v>
+      </c>
+      <c r="M3">
+        <f t="shared" ref="M3:M12" si="1">E3+F3+G3+H3+I3+J3+K3+L3</f>
+        <v>37616</v>
+      </c>
+      <c r="N3" s="19">
+        <f t="shared" ref="N3:N12" si="2">D3*2160</f>
+        <v>40046.400000000001</v>
+      </c>
+      <c r="O3" s="19">
+        <f t="shared" ref="O3:O12" si="3">N3-M3</f>
+        <v>2430.4000000000015</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A4" s="16">
+        <v>3</v>
+      </c>
+      <c r="B4" s="18">
+        <v>45937</v>
+      </c>
+      <c r="C4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4">
+        <v>27.89</v>
+      </c>
+      <c r="E4">
+        <f t="shared" si="0"/>
+        <v>11156</v>
+      </c>
+      <c r="F4">
+        <v>10000</v>
+      </c>
+      <c r="G4">
+        <v>1000</v>
+      </c>
+      <c r="H4">
+        <v>10000</v>
+      </c>
+      <c r="I4">
+        <v>2000</v>
+      </c>
+      <c r="J4">
+        <v>700</v>
+      </c>
+      <c r="K4">
+        <v>300</v>
+      </c>
+      <c r="L4">
+        <v>200</v>
+      </c>
+      <c r="M4">
+        <f t="shared" si="1"/>
+        <v>35356</v>
+      </c>
+      <c r="N4" s="19">
+        <f t="shared" si="2"/>
+        <v>60242.400000000001</v>
+      </c>
+      <c r="O4" s="19">
+        <f t="shared" si="3"/>
+        <v>24886.400000000001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A5" s="16">
+        <v>4</v>
+      </c>
+      <c r="B5" s="18">
+        <v>45938</v>
+      </c>
+      <c r="C5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5">
+        <v>20</v>
+      </c>
+      <c r="E5">
+        <f t="shared" si="0"/>
+        <v>8000</v>
+      </c>
+      <c r="F5">
+        <v>10000</v>
+      </c>
+      <c r="G5">
+        <v>1000</v>
+      </c>
+      <c r="H5">
+        <v>12000</v>
+      </c>
+      <c r="I5">
+        <v>2000</v>
+      </c>
+      <c r="J5">
+        <v>700</v>
+      </c>
+      <c r="K5">
+        <v>300</v>
+      </c>
+      <c r="L5">
+        <v>200</v>
+      </c>
+      <c r="M5">
+        <f t="shared" si="1"/>
+        <v>34200</v>
+      </c>
+      <c r="N5" s="19">
+        <f t="shared" si="2"/>
+        <v>43200</v>
+      </c>
+      <c r="O5" s="19">
+        <f t="shared" si="3"/>
+        <v>9000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A6" s="16">
+        <v>5</v>
+      </c>
+      <c r="B6" s="18">
+        <v>45939</v>
+      </c>
+      <c r="C6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6">
+        <v>20.079999999999998</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="0"/>
+        <v>8031.9999999999991</v>
+      </c>
+      <c r="F6">
+        <v>10000</v>
+      </c>
+      <c r="G6">
+        <v>1000</v>
+      </c>
+      <c r="H6">
+        <v>11000</v>
+      </c>
+      <c r="I6">
+        <v>2000</v>
+      </c>
+      <c r="J6">
+        <v>700</v>
+      </c>
+      <c r="K6">
+        <v>300</v>
+      </c>
+      <c r="L6">
+        <v>200</v>
+      </c>
+      <c r="M6">
+        <f t="shared" si="1"/>
+        <v>33232</v>
+      </c>
+      <c r="N6" s="19">
+        <f t="shared" si="2"/>
+        <v>43372.799999999996</v>
+      </c>
+      <c r="O6" s="19">
+        <f t="shared" si="3"/>
+        <v>10140.799999999996</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A7" s="16">
+        <v>6</v>
+      </c>
+      <c r="B7" s="18">
+        <v>45939</v>
+      </c>
+      <c r="C7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7">
+        <v>27.63</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="0"/>
+        <v>11052</v>
+      </c>
+      <c r="F7">
+        <v>10000</v>
+      </c>
+      <c r="G7">
+        <v>1000</v>
+      </c>
+      <c r="H7">
+        <v>10000</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>700</v>
+      </c>
+      <c r="K7">
+        <v>300</v>
+      </c>
+      <c r="L7">
+        <v>200</v>
+      </c>
+      <c r="M7">
+        <f t="shared" si="1"/>
+        <v>33252</v>
+      </c>
+      <c r="N7" s="19">
+        <f t="shared" si="2"/>
+        <v>59680.799999999996</v>
+      </c>
+      <c r="O7" s="19">
+        <f t="shared" si="3"/>
+        <v>26428.799999999996</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A8" s="16">
+        <v>7</v>
+      </c>
+      <c r="B8" s="18">
+        <v>45939</v>
+      </c>
+      <c r="C8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8">
+        <v>27.09</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="0"/>
+        <v>10836</v>
+      </c>
+      <c r="F8">
+        <v>10000</v>
+      </c>
+      <c r="G8">
+        <v>1000</v>
+      </c>
+      <c r="H8">
+        <v>10000</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>700</v>
+      </c>
+      <c r="K8">
+        <v>300</v>
+      </c>
+      <c r="L8">
+        <v>200</v>
+      </c>
+      <c r="M8">
+        <f t="shared" si="1"/>
+        <v>33036</v>
+      </c>
+      <c r="N8" s="19">
+        <f t="shared" si="2"/>
+        <v>58514.400000000001</v>
+      </c>
+      <c r="O8" s="19">
+        <f t="shared" si="3"/>
+        <v>25478.400000000001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A9" s="16">
+        <v>8</v>
+      </c>
+      <c r="B9" s="18">
+        <v>45940</v>
+      </c>
+      <c r="C9" t="s">
+        <v>21</v>
+      </c>
+      <c r="D9">
+        <v>26.22</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="0"/>
+        <v>10488</v>
+      </c>
+      <c r="F9">
+        <v>10000</v>
+      </c>
+      <c r="G9">
+        <v>1000</v>
+      </c>
+      <c r="H9">
+        <v>10000</v>
+      </c>
+      <c r="I9">
+        <v>2000</v>
+      </c>
+      <c r="J9">
+        <v>700</v>
+      </c>
+      <c r="K9">
+        <v>300</v>
+      </c>
+      <c r="L9">
+        <v>200</v>
+      </c>
+      <c r="M9">
+        <f t="shared" si="1"/>
+        <v>34688</v>
+      </c>
+      <c r="N9" s="19">
+        <f t="shared" si="2"/>
+        <v>56635.199999999997</v>
+      </c>
+      <c r="O9" s="19">
+        <f t="shared" si="3"/>
+        <v>21947.199999999997</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A10" s="16">
+        <v>9</v>
+      </c>
+      <c r="B10" s="18">
+        <v>45940</v>
+      </c>
+      <c r="C10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D10">
+        <v>26.32</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="0"/>
+        <v>10528</v>
+      </c>
+      <c r="F10">
+        <v>10000</v>
+      </c>
+      <c r="G10">
+        <v>1000</v>
+      </c>
+      <c r="H10">
+        <v>10000</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>700</v>
+      </c>
+      <c r="K10">
+        <v>300</v>
+      </c>
+      <c r="L10">
+        <v>200</v>
+      </c>
+      <c r="M10">
+        <f t="shared" si="1"/>
+        <v>32728</v>
+      </c>
+      <c r="N10" s="19">
+        <f t="shared" si="2"/>
+        <v>56851.199999999997</v>
+      </c>
+      <c r="O10" s="19">
+        <f t="shared" si="3"/>
+        <v>24123.199999999997</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A11" s="16">
+        <v>10</v>
+      </c>
+      <c r="B11" s="18">
+        <v>45940</v>
+      </c>
+      <c r="C11" t="s">
+        <v>20</v>
+      </c>
+      <c r="D11">
+        <v>20.37</v>
+      </c>
+      <c r="E11">
+        <f t="shared" si="0"/>
+        <v>8148</v>
+      </c>
+      <c r="F11">
+        <v>10000</v>
+      </c>
+      <c r="G11">
+        <v>1000</v>
+      </c>
+      <c r="H11">
+        <v>11000</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>700</v>
+      </c>
+      <c r="K11">
+        <v>300</v>
+      </c>
+      <c r="L11">
+        <v>200</v>
+      </c>
+      <c r="M11">
+        <f t="shared" si="1"/>
+        <v>31348</v>
+      </c>
+      <c r="N11" s="19">
+        <f t="shared" si="2"/>
+        <v>43999.200000000004</v>
+      </c>
+      <c r="O11" s="19">
+        <f t="shared" si="3"/>
+        <v>12651.200000000004</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A12" s="16">
+        <v>11</v>
+      </c>
+      <c r="B12" s="18">
+        <v>45942</v>
+      </c>
+      <c r="C12" t="s">
+        <v>20</v>
+      </c>
+      <c r="D12">
+        <v>23.04</v>
+      </c>
+      <c r="E12">
+        <f t="shared" si="0"/>
+        <v>9216</v>
+      </c>
+      <c r="F12">
+        <v>10000</v>
+      </c>
+      <c r="G12">
+        <v>1000</v>
+      </c>
+      <c r="H12">
+        <v>11000</v>
+      </c>
+      <c r="I12">
+        <v>2000</v>
+      </c>
+      <c r="J12">
+        <v>700</v>
+      </c>
+      <c r="K12">
+        <v>300</v>
+      </c>
+      <c r="L12">
+        <v>200</v>
+      </c>
+      <c r="M12">
+        <f t="shared" si="1"/>
+        <v>34416</v>
+      </c>
+      <c r="N12" s="19">
+        <f t="shared" si="2"/>
+        <v>49766.400000000001</v>
+      </c>
+      <c r="O12" s="19">
+        <f t="shared" si="3"/>
+        <v>15350.400000000001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="21">
+        <v>100</v>
+      </c>
+      <c r="B13" s="30" t="s">
+        <v>63</v>
+      </c>
+      <c r="C13" s="30"/>
+      <c r="D13" s="1">
+        <f>SUM(D2:D12)</f>
+        <v>256.57</v>
+      </c>
+      <c r="E13" s="1">
+        <f>SUM(E2:E12)</f>
+        <v>102628</v>
+      </c>
+      <c r="F13" s="1">
+        <f>SUM(F2:F12)</f>
+        <v>110000</v>
+      </c>
+      <c r="G13" s="1">
+        <f>SUM(G2:G12)</f>
+        <v>11000</v>
+      </c>
+      <c r="H13" s="1">
+        <f>SUM(H2:H12)</f>
+        <v>121000</v>
+      </c>
+      <c r="I13" s="1">
+        <f>SUM(I2:I12)</f>
+        <v>14000</v>
+      </c>
+      <c r="J13" s="1">
+        <f>SUM(J2:J12)</f>
+        <v>7700</v>
+      </c>
+      <c r="K13" s="1">
+        <f>SUM(K2:K12)</f>
+        <v>3300</v>
+      </c>
+      <c r="L13" s="1">
+        <f>SUM(L2:L12)</f>
+        <v>2200</v>
+      </c>
+      <c r="M13" s="1">
+        <f>SUM(M2:M12)</f>
+        <v>371828</v>
+      </c>
+      <c r="N13" s="23">
+        <f>SUM(N2:N12)</f>
+        <v>554191.20000000007</v>
+      </c>
+      <c r="O13" s="23">
+        <f>SUM(O2:O12)</f>
+        <v>182363.19999999998</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B13:C13"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Nellore_Data.xlsx
+++ b/Nellore_Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Nellore\project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10AD0870-F4A9-4905-B539-3B8709A9B1DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{721DED4E-F0E3-4FD9-82DF-264D3DE03F4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Invoice_Data" sheetId="1" r:id="rId1"/>
@@ -375,7 +375,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -448,16 +448,13 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -741,8 +738,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L14" sqref="L14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1180,71 +1177,68 @@
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A12" s="31">
+      <c r="A12" s="2">
         <v>11</v>
       </c>
-      <c r="B12" s="32" t="s">
+      <c r="B12" s="30" t="s">
         <v>90</v>
       </c>
-      <c r="C12" s="33">
+      <c r="C12" s="31">
         <v>45942</v>
       </c>
-      <c r="D12" s="33" t="s">
+      <c r="D12" s="31" t="s">
         <v>35</v>
       </c>
-      <c r="E12" s="32" t="s">
+      <c r="E12" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="F12" s="32" t="s">
+      <c r="F12" s="30" t="s">
         <v>22</v>
       </c>
-      <c r="G12" s="32" t="s">
+      <c r="G12" s="30" t="s">
         <v>22</v>
       </c>
-      <c r="H12" s="32">
+      <c r="H12" s="30">
         <v>207</v>
       </c>
-      <c r="I12" s="33">
+      <c r="I12" s="31">
         <v>45942</v>
       </c>
-      <c r="J12" s="32">
+      <c r="J12" s="30">
         <v>23.04</v>
       </c>
-      <c r="K12" s="32">
+      <c r="K12" s="30">
         <v>49766</v>
       </c>
-      <c r="L12" s="32" t="s">
+      <c r="L12" s="30" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A13" s="7">
+    <row r="13" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="4">
         <v>100</v>
       </c>
-      <c r="B13" s="34" t="s">
+      <c r="B13" s="5"/>
+      <c r="C13" s="33"/>
+      <c r="D13" s="33"/>
+      <c r="E13" s="33"/>
+      <c r="F13" s="33"/>
+      <c r="G13" s="33"/>
+      <c r="H13" s="33"/>
+      <c r="I13" s="33" t="s">
         <v>59</v>
       </c>
-      <c r="C13" s="34"/>
-      <c r="D13" s="34"/>
-      <c r="E13" s="34"/>
-      <c r="F13" s="34"/>
-      <c r="G13" s="34"/>
-      <c r="H13" s="34"/>
-      <c r="I13" s="34"/>
-      <c r="J13" s="13">
+      <c r="J13" s="5">
         <f>SUM(J2:J12)</f>
         <v>256.57</v>
       </c>
-      <c r="K13" s="13">
+      <c r="K13" s="5">
         <f>SUM(K2:K12)</f>
         <v>554187</v>
       </c>
-      <c r="L13" s="13"/>
+      <c r="L13" s="5"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="B13:I13"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1728,7 +1722,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38E521D2-0E53-43DA-846D-54C42DBE6A26}">
   <dimension ref="A1:O13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="Q13" sqref="Q13"/>
     </sheetView>
   </sheetViews>
@@ -2363,56 +2357,56 @@
       <c r="A13" s="21">
         <v>100</v>
       </c>
-      <c r="B13" s="30" t="s">
+      <c r="B13" s="32" t="s">
         <v>63</v>
       </c>
-      <c r="C13" s="30"/>
+      <c r="C13" s="32"/>
       <c r="D13" s="1">
-        <f>SUM(D2:D12)</f>
+        <f t="shared" ref="D13:O13" si="4">SUM(D2:D12)</f>
         <v>256.57</v>
       </c>
       <c r="E13" s="1">
-        <f>SUM(E2:E12)</f>
+        <f t="shared" si="4"/>
         <v>102628</v>
       </c>
       <c r="F13" s="1">
-        <f>SUM(F2:F12)</f>
+        <f t="shared" si="4"/>
         <v>110000</v>
       </c>
       <c r="G13" s="1">
-        <f>SUM(G2:G12)</f>
+        <f t="shared" si="4"/>
         <v>11000</v>
       </c>
       <c r="H13" s="1">
-        <f>SUM(H2:H12)</f>
+        <f t="shared" si="4"/>
         <v>121000</v>
       </c>
       <c r="I13" s="1">
-        <f>SUM(I2:I12)</f>
+        <f t="shared" si="4"/>
         <v>14000</v>
       </c>
       <c r="J13" s="1">
-        <f>SUM(J2:J12)</f>
+        <f t="shared" si="4"/>
         <v>7700</v>
       </c>
       <c r="K13" s="1">
-        <f>SUM(K2:K12)</f>
+        <f t="shared" si="4"/>
         <v>3300</v>
       </c>
       <c r="L13" s="1">
-        <f>SUM(L2:L12)</f>
+        <f t="shared" si="4"/>
         <v>2200</v>
       </c>
       <c r="M13" s="1">
-        <f>SUM(M2:M12)</f>
+        <f t="shared" si="4"/>
         <v>371828</v>
       </c>
       <c r="N13" s="23">
-        <f>SUM(N2:N12)</f>
+        <f t="shared" si="4"/>
         <v>554191.20000000007</v>
       </c>
       <c r="O13" s="23">
-        <f>SUM(O2:O12)</f>
+        <f t="shared" si="4"/>
         <v>182363.19999999998</v>
       </c>
     </row>

--- a/Nellore_Data.xlsx
+++ b/Nellore_Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Nellore\project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{721DED4E-F0E3-4FD9-82DF-264D3DE03F4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F80530A-ECF8-4679-9BC5-CBF1F02FD818}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="95">
   <si>
     <t>S No</t>
   </si>
@@ -276,9 +276,6 @@
     <t>Other</t>
   </si>
   <si>
-    <t>Bill</t>
-  </si>
-  <si>
     <t xml:space="preserve">Driver Batha	</t>
   </si>
   <si>
@@ -288,9 +285,6 @@
     <t xml:space="preserve">Tollgate	</t>
   </si>
   <si>
-    <t>Profit</t>
-  </si>
-  <si>
     <t>Transporter Name</t>
   </si>
   <si>
@@ -303,7 +297,22 @@
     <t>WGL/SGSL/A-0338</t>
   </si>
   <si>
-    <t>Not Submitted</t>
+    <t xml:space="preserve">Returns(Rs.) </t>
+  </si>
+  <si>
+    <t>Profits(Rs.)</t>
+  </si>
+  <si>
+    <t>Investment(Rs.)</t>
+  </si>
+  <si>
+    <t>Sai Kumar</t>
+  </si>
+  <si>
+    <t>Bhukya Ravinder</t>
+  </si>
+  <si>
+    <t>WGL/SGSL/A-0339</t>
   </si>
 </sst>
 </file>
@@ -375,7 +384,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -450,12 +459,14 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -736,10 +747,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L13"/>
+  <dimension ref="A1:L14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="K2" sqref="K2:K13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -763,13 +774,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="E1" s="5" t="s">
         <v>2</v>
@@ -1181,7 +1192,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="30" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C12" s="31">
         <v>45942</v>
@@ -1211,32 +1222,70 @@
         <v>49766</v>
       </c>
       <c r="L12" s="30" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="4">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A13" s="2">
+        <v>12</v>
+      </c>
+      <c r="B13" s="30" t="s">
+        <v>94</v>
+      </c>
+      <c r="C13" s="31">
+        <v>45944</v>
+      </c>
+      <c r="D13" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="E13" s="30" t="s">
+        <v>20</v>
+      </c>
+      <c r="F13" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="G13" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="H13" s="30">
+        <v>223</v>
+      </c>
+      <c r="I13" s="31">
+        <v>45944</v>
+      </c>
+      <c r="J13" s="30">
+        <v>20.04</v>
+      </c>
+      <c r="K13" s="35">
+        <v>43286</v>
+      </c>
+      <c r="L13" s="30" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="4">
         <v>100</v>
       </c>
-      <c r="B13" s="5"/>
-      <c r="C13" s="33"/>
-      <c r="D13" s="33"/>
-      <c r="E13" s="33"/>
-      <c r="F13" s="33"/>
-      <c r="G13" s="33"/>
-      <c r="H13" s="33"/>
-      <c r="I13" s="33" t="s">
+      <c r="B14" s="5"/>
+      <c r="C14" s="32"/>
+      <c r="D14" s="32"/>
+      <c r="E14" s="32"/>
+      <c r="F14" s="32"/>
+      <c r="G14" s="32"/>
+      <c r="H14" s="32"/>
+      <c r="I14" s="32" t="s">
         <v>59</v>
       </c>
-      <c r="J13" s="5">
-        <f>SUM(J2:J12)</f>
-        <v>256.57</v>
-      </c>
-      <c r="K13" s="5">
-        <f>SUM(K2:K12)</f>
-        <v>554187</v>
-      </c>
-      <c r="L13" s="5"/>
+      <c r="J14" s="5">
+        <f>SUM(J2:J13)</f>
+        <v>276.61</v>
+      </c>
+      <c r="K14" s="5">
+        <f>SUM(K2:K13)</f>
+        <v>597473</v>
+      </c>
+      <c r="L14" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1248,7 +1297,7 @@
   <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1442,10 +1491,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{100B4ED9-C387-47BC-8EF7-F2DAC64DD522}">
-  <dimension ref="A1:H10"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1455,7 +1504,7 @@
     <col min="4" max="4" width="12.77734375" customWidth="1"/>
     <col min="5" max="5" width="11.109375" customWidth="1"/>
     <col min="6" max="6" width="17.33203125" customWidth="1"/>
-    <col min="7" max="7" width="12" customWidth="1"/>
+    <col min="7" max="7" width="14.33203125" customWidth="1"/>
     <col min="8" max="8" width="25.44140625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1711,6 +1760,56 @@
       </c>
       <c r="H10" s="13" t="s">
         <v>75</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A11" s="7">
+        <v>10</v>
+      </c>
+      <c r="B11" s="15">
+        <v>45944</v>
+      </c>
+      <c r="C11" s="24">
+        <v>0</v>
+      </c>
+      <c r="D11" s="24">
+        <v>500</v>
+      </c>
+      <c r="E11" s="24">
+        <v>263788</v>
+      </c>
+      <c r="F11" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="G11" s="13"/>
+      <c r="H11" s="13" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A12" s="7">
+        <v>11</v>
+      </c>
+      <c r="B12" s="15">
+        <v>45944</v>
+      </c>
+      <c r="C12" s="24">
+        <v>0</v>
+      </c>
+      <c r="D12" s="24">
+        <v>12000</v>
+      </c>
+      <c r="E12" s="24">
+        <v>251788</v>
+      </c>
+      <c r="F12" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="G12" s="33">
+        <v>9160193179</v>
+      </c>
+      <c r="H12" s="13" t="s">
+        <v>93</v>
       </c>
     </row>
   </sheetData>
@@ -1720,10 +1819,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38E521D2-0E53-43DA-846D-54C42DBE6A26}">
-  <dimension ref="A1:O13"/>
+  <dimension ref="A1:O14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="Q13" sqref="Q13"/>
+      <selection activeCell="M13" sqref="M13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1740,7 +1839,7 @@
     <col min="10" max="10" width="10.33203125" customWidth="1"/>
     <col min="11" max="11" width="8.5546875" customWidth="1"/>
     <col min="12" max="12" width="7.21875" customWidth="1"/>
-    <col min="13" max="13" width="9" customWidth="1"/>
+    <col min="13" max="13" width="15.77734375" customWidth="1"/>
     <col min="14" max="14" width="12.33203125" customWidth="1"/>
     <col min="15" max="15" width="12" customWidth="1"/>
   </cols>
@@ -1765,10 +1864,10 @@
         <v>61</v>
       </c>
       <c r="G1" s="17" t="s">
+        <v>82</v>
+      </c>
+      <c r="H1" s="17" t="s">
         <v>83</v>
-      </c>
-      <c r="H1" s="17" t="s">
-        <v>84</v>
       </c>
       <c r="I1" s="17" t="s">
         <v>62</v>
@@ -1777,19 +1876,19 @@
         <v>79</v>
       </c>
       <c r="K1" s="22" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="L1" s="17" t="s">
         <v>81</v>
       </c>
       <c r="M1" s="17" t="s">
-        <v>63</v>
+        <v>91</v>
       </c>
       <c r="N1" s="17" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="O1" s="17" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.3">
@@ -1857,7 +1956,7 @@
         <v>18.54</v>
       </c>
       <c r="E3">
-        <f t="shared" ref="E3:E12" si="0">D3*400</f>
+        <f t="shared" ref="E3:E13" si="0">D3*400</f>
         <v>7416</v>
       </c>
       <c r="F3">
@@ -1882,15 +1981,15 @@
         <v>200</v>
       </c>
       <c r="M3">
-        <f t="shared" ref="M3:M12" si="1">E3+F3+G3+H3+I3+J3+K3+L3</f>
+        <f t="shared" ref="M3:M13" si="1">E3+F3+G3+H3+I3+J3+K3+L3</f>
         <v>37616</v>
       </c>
       <c r="N3" s="19">
-        <f t="shared" ref="N3:N12" si="2">D3*2160</f>
+        <f t="shared" ref="N3:N13" si="2">D3*2160</f>
         <v>40046.400000000001</v>
       </c>
       <c r="O3" s="19">
-        <f t="shared" ref="O3:O12" si="3">N3-M3</f>
+        <f t="shared" ref="O3:O13" si="3">N3-M3</f>
         <v>2430.4000000000015</v>
       </c>
     </row>
@@ -2353,66 +2452,117 @@
         <v>15350.400000000001</v>
       </c>
     </row>
-    <row r="13" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="21">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A13" s="16">
+        <v>12</v>
+      </c>
+      <c r="B13" s="18">
+        <v>45944</v>
+      </c>
+      <c r="C13" t="s">
+        <v>20</v>
+      </c>
+      <c r="D13">
+        <v>20.04</v>
+      </c>
+      <c r="E13">
+        <f t="shared" si="0"/>
+        <v>8016</v>
+      </c>
+      <c r="F13">
+        <v>10000</v>
+      </c>
+      <c r="G13">
+        <v>1000</v>
+      </c>
+      <c r="H13">
+        <v>12000</v>
+      </c>
+      <c r="I13">
+        <v>2000</v>
+      </c>
+      <c r="J13">
+        <v>700</v>
+      </c>
+      <c r="K13">
+        <v>300</v>
+      </c>
+      <c r="L13">
+        <v>200</v>
+      </c>
+      <c r="M13">
+        <f t="shared" si="1"/>
+        <v>34216</v>
+      </c>
+      <c r="N13" s="19">
+        <f t="shared" si="2"/>
+        <v>43286.400000000001</v>
+      </c>
+      <c r="O13" s="19">
+        <f t="shared" si="3"/>
+        <v>9070.4000000000015</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="21">
         <v>100</v>
       </c>
-      <c r="B13" s="32" t="s">
+      <c r="B14" s="34" t="s">
         <v>63</v>
       </c>
-      <c r="C13" s="32"/>
-      <c r="D13" s="1">
-        <f t="shared" ref="D13:O13" si="4">SUM(D2:D12)</f>
-        <v>256.57</v>
-      </c>
-      <c r="E13" s="1">
+      <c r="C14" s="34"/>
+      <c r="D14" s="1">
+        <f t="shared" ref="D14:O14" si="4">SUM(D2:D13)</f>
+        <v>276.61</v>
+      </c>
+      <c r="E14" s="1">
         <f t="shared" si="4"/>
-        <v>102628</v>
-      </c>
-      <c r="F13" s="1">
+        <v>110644</v>
+      </c>
+      <c r="F14" s="1">
         <f t="shared" si="4"/>
-        <v>110000</v>
-      </c>
-      <c r="G13" s="1">
+        <v>120000</v>
+      </c>
+      <c r="G14" s="1">
         <f t="shared" si="4"/>
-        <v>11000</v>
-      </c>
-      <c r="H13" s="1">
+        <v>12000</v>
+      </c>
+      <c r="H14" s="1">
         <f t="shared" si="4"/>
-        <v>121000</v>
-      </c>
-      <c r="I13" s="1">
+        <v>133000</v>
+      </c>
+      <c r="I14" s="1">
         <f t="shared" si="4"/>
-        <v>14000</v>
-      </c>
-      <c r="J13" s="1">
+        <v>16000</v>
+      </c>
+      <c r="J14" s="1">
         <f t="shared" si="4"/>
-        <v>7700</v>
-      </c>
-      <c r="K13" s="1">
+        <v>8400</v>
+      </c>
+      <c r="K14" s="1">
         <f t="shared" si="4"/>
-        <v>3300</v>
-      </c>
-      <c r="L13" s="1">
+        <v>3600</v>
+      </c>
+      <c r="L14" s="1">
         <f t="shared" si="4"/>
-        <v>2200</v>
-      </c>
-      <c r="M13" s="1">
+        <v>2400</v>
+      </c>
+      <c r="M14" s="1">
         <f t="shared" si="4"/>
-        <v>371828</v>
-      </c>
-      <c r="N13" s="23">
+        <v>406044</v>
+      </c>
+      <c r="N14" s="23">
         <f t="shared" si="4"/>
-        <v>554191.20000000007</v>
-      </c>
-      <c r="O13" s="23">
+        <v>597477.60000000009</v>
+      </c>
+      <c r="O14" s="23">
         <f t="shared" si="4"/>
-        <v>182363.19999999998</v>
+        <v>191433.59999999998</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B14:C14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Nellore_Data.xlsx
+++ b/Nellore_Data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Nellore\project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Nellore\ShakthiOnlineApp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F80530A-ECF8-4679-9BC5-CBF1F02FD818}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4D07101-ACEB-4C95-960E-B8E6A5FBEBCF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Invoice_Data" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="106">
   <si>
     <t>S No</t>
   </si>
@@ -313,6 +313,39 @@
   </si>
   <si>
     <t>WGL/SGSL/A-0339</t>
+  </si>
+  <si>
+    <t>WGL/SGSL/A-0340</t>
+  </si>
+  <si>
+    <t>WGL/SGSL/A-0341</t>
+  </si>
+  <si>
+    <t>WGL/SGSL/A-0342</t>
+  </si>
+  <si>
+    <t>Not Submitted</t>
+  </si>
+  <si>
+    <t>Md Arif</t>
+  </si>
+  <si>
+    <t>Raja</t>
+  </si>
+  <si>
+    <t>TN 11 BK 8323</t>
+  </si>
+  <si>
+    <t>TN 11 BK 8371</t>
+  </si>
+  <si>
+    <t>1122 4109 7137</t>
+  </si>
+  <si>
+    <t>1722 4109 7713</t>
+  </si>
+  <si>
+    <t>Rajendar</t>
   </si>
 </sst>
 </file>
@@ -384,7 +417,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -429,18 +462,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -463,10 +487,33 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -747,10 +794,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L14"/>
+  <dimension ref="A1:L17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2:K13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J14" sqref="J14:J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1191,37 +1238,37 @@
       <c r="A12" s="2">
         <v>11</v>
       </c>
-      <c r="B12" s="30" t="s">
+      <c r="B12" s="25" t="s">
         <v>88</v>
       </c>
-      <c r="C12" s="31">
+      <c r="C12" s="26">
         <v>45942</v>
       </c>
-      <c r="D12" s="31" t="s">
+      <c r="D12" s="26" t="s">
         <v>35</v>
       </c>
-      <c r="E12" s="30" t="s">
+      <c r="E12" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="F12" s="30" t="s">
+      <c r="F12" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="G12" s="30" t="s">
+      <c r="G12" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="H12" s="30">
+      <c r="H12" s="25">
         <v>207</v>
       </c>
-      <c r="I12" s="31">
+      <c r="I12" s="26">
         <v>45942</v>
       </c>
-      <c r="J12" s="30">
+      <c r="J12" s="25">
         <v>23.04</v>
       </c>
-      <c r="K12" s="30">
+      <c r="K12" s="25">
         <v>49766</v>
       </c>
-      <c r="L12" s="30" t="s">
+      <c r="L12" s="25" t="s">
         <v>54</v>
       </c>
     </row>
@@ -1229,63 +1276,177 @@
       <c r="A13" s="2">
         <v>12</v>
       </c>
-      <c r="B13" s="30" t="s">
+      <c r="B13" s="25" t="s">
         <v>94</v>
       </c>
-      <c r="C13" s="31">
+      <c r="C13" s="26">
         <v>45944</v>
       </c>
-      <c r="D13" s="31" t="s">
+      <c r="D13" s="26" t="s">
         <v>35</v>
       </c>
-      <c r="E13" s="30" t="s">
+      <c r="E13" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="F13" s="30" t="s">
+      <c r="F13" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="G13" s="30" t="s">
+      <c r="G13" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="H13" s="30">
+      <c r="H13" s="25">
         <v>223</v>
       </c>
-      <c r="I13" s="31">
+      <c r="I13" s="26">
         <v>45944</v>
       </c>
-      <c r="J13" s="30">
+      <c r="J13" s="25">
         <v>20.04</v>
       </c>
-      <c r="K13" s="35">
+      <c r="K13" s="29">
         <v>43286</v>
       </c>
-      <c r="L13" s="30" t="s">
+      <c r="L13" s="25" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="14" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="4">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A14" s="2">
+        <v>13</v>
+      </c>
+      <c r="B14" s="25" t="s">
+        <v>95</v>
+      </c>
+      <c r="C14" s="26">
+        <v>45946</v>
+      </c>
+      <c r="D14" s="26" t="s">
+        <v>35</v>
+      </c>
+      <c r="E14" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="F14" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="G14" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="H14" s="25">
+        <v>233</v>
+      </c>
+      <c r="I14" s="26">
+        <v>45946</v>
+      </c>
+      <c r="J14" s="25">
+        <v>19.829999999999998</v>
+      </c>
+      <c r="K14" s="29">
+        <v>42832</v>
+      </c>
+      <c r="L14" s="25" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A15" s="2">
+        <v>14</v>
+      </c>
+      <c r="B15" s="25" t="s">
+        <v>96</v>
+      </c>
+      <c r="C15" s="26">
+        <v>45946</v>
+      </c>
+      <c r="D15" s="26" t="s">
+        <v>99</v>
+      </c>
+      <c r="E15" s="25" t="s">
+        <v>102</v>
+      </c>
+      <c r="F15" s="25" t="s">
+        <v>103</v>
+      </c>
+      <c r="G15" s="26">
+        <v>45947</v>
+      </c>
+      <c r="H15" s="25">
+        <v>234</v>
+      </c>
+      <c r="I15" s="26">
+        <v>45946</v>
+      </c>
+      <c r="J15" s="25">
+        <v>28.52</v>
+      </c>
+      <c r="K15" s="29">
+        <v>61603</v>
+      </c>
+      <c r="L15" s="25" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A16" s="2">
+        <v>15</v>
+      </c>
+      <c r="B16" s="25" t="s">
+        <v>97</v>
+      </c>
+      <c r="C16" s="26">
+        <v>45946</v>
+      </c>
+      <c r="D16" s="26" t="s">
         <v>100</v>
       </c>
-      <c r="B14" s="5"/>
-      <c r="C14" s="32"/>
-      <c r="D14" s="32"/>
-      <c r="E14" s="32"/>
-      <c r="F14" s="32"/>
-      <c r="G14" s="32"/>
-      <c r="H14" s="32"/>
-      <c r="I14" s="32" t="s">
+      <c r="E16" s="25" t="s">
+        <v>101</v>
+      </c>
+      <c r="F16" s="25" t="s">
+        <v>104</v>
+      </c>
+      <c r="G16" s="26">
+        <v>45947</v>
+      </c>
+      <c r="H16" s="25">
+        <v>235</v>
+      </c>
+      <c r="I16" s="26">
+        <v>45946</v>
+      </c>
+      <c r="J16" s="25">
+        <v>27.64</v>
+      </c>
+      <c r="K16" s="29">
+        <v>59702</v>
+      </c>
+      <c r="L16" s="25" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="4">
+        <v>100</v>
+      </c>
+      <c r="B17" s="5"/>
+      <c r="C17" s="27"/>
+      <c r="D17" s="27"/>
+      <c r="E17" s="27"/>
+      <c r="F17" s="27"/>
+      <c r="G17" s="27"/>
+      <c r="H17" s="27"/>
+      <c r="I17" s="27" t="s">
         <v>59</v>
       </c>
-      <c r="J14" s="5">
-        <f>SUM(J2:J13)</f>
-        <v>276.61</v>
-      </c>
-      <c r="K14" s="5">
-        <f>SUM(K2:K13)</f>
-        <v>597473</v>
-      </c>
-      <c r="L14" s="5"/>
+      <c r="J17" s="5">
+        <f>SUM(J2:J16)</f>
+        <v>352.59999999999997</v>
+      </c>
+      <c r="K17" s="5">
+        <f>SUM(K2:K16)</f>
+        <v>761610</v>
+      </c>
+      <c r="L17" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1297,7 +1458,7 @@
   <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1491,14 +1652,15 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{100B4ED9-C387-47BC-8EF7-F2DAC64DD522}">
-  <dimension ref="A1:H12"/>
+  <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
+    <col min="1" max="1" width="8.88671875" style="16"/>
     <col min="2" max="2" width="10.77734375" customWidth="1"/>
     <col min="3" max="3" width="11.5546875" customWidth="1"/>
     <col min="4" max="4" width="12.77734375" customWidth="1"/>
@@ -1541,13 +1703,13 @@
       <c r="B2" s="15">
         <v>45937</v>
       </c>
-      <c r="C2" s="24">
+      <c r="C2" s="19">
         <v>900000</v>
       </c>
-      <c r="D2" s="24">
+      <c r="D2" s="19">
         <v>0</v>
       </c>
-      <c r="E2" s="24">
+      <c r="E2" s="19">
         <v>900000</v>
       </c>
       <c r="F2" s="13" t="s">
@@ -1565,13 +1727,13 @@
       <c r="B3" s="15">
         <v>45938</v>
       </c>
-      <c r="C3" s="24">
+      <c r="C3" s="19">
         <v>0</v>
       </c>
-      <c r="D3" s="24">
+      <c r="D3" s="19">
         <v>350000</v>
       </c>
-      <c r="E3" s="24">
+      <c r="E3" s="19">
         <v>550000</v>
       </c>
       <c r="F3" s="13" t="s">
@@ -1582,29 +1744,29 @@
         <v>68</v>
       </c>
     </row>
-    <row r="4" spans="1:8" s="20" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="27">
+    <row r="4" spans="1:8" s="18" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="22">
         <v>3</v>
       </c>
-      <c r="B4" s="28">
+      <c r="B4" s="23">
         <v>45938</v>
       </c>
-      <c r="C4" s="29">
+      <c r="C4" s="24">
         <v>0</v>
       </c>
-      <c r="D4" s="29">
+      <c r="D4" s="24">
         <v>50000</v>
       </c>
-      <c r="E4" s="29">
+      <c r="E4" s="24">
         <v>500000</v>
       </c>
-      <c r="F4" s="25" t="s">
+      <c r="F4" s="20" t="s">
         <v>69</v>
       </c>
-      <c r="G4" s="25">
+      <c r="G4" s="20">
         <v>9177417111</v>
       </c>
-      <c r="H4" s="25" t="s">
+      <c r="H4" s="20" t="s">
         <v>67</v>
       </c>
     </row>
@@ -1615,13 +1777,13 @@
       <c r="B5" s="15">
         <v>45938</v>
       </c>
-      <c r="C5" s="26">
+      <c r="C5" s="21">
         <v>0</v>
       </c>
-      <c r="D5" s="26">
+      <c r="D5" s="21">
         <v>100000</v>
       </c>
-      <c r="E5" s="24">
+      <c r="E5" s="19">
         <v>400000</v>
       </c>
       <c r="F5" s="13" t="s">
@@ -1639,13 +1801,13 @@
       <c r="B6" s="15">
         <v>45939</v>
       </c>
-      <c r="C6" s="24">
+      <c r="C6" s="19">
         <v>0</v>
       </c>
-      <c r="D6" s="24">
+      <c r="D6" s="19">
         <v>20000</v>
       </c>
-      <c r="E6" s="24">
+      <c r="E6" s="19">
         <v>380000</v>
       </c>
       <c r="F6" s="13" t="s">
@@ -1665,13 +1827,13 @@
       <c r="B7" s="15">
         <v>45939</v>
       </c>
-      <c r="C7" s="24">
+      <c r="C7" s="19">
         <v>0</v>
       </c>
-      <c r="D7" s="24">
+      <c r="D7" s="19">
         <v>15664</v>
       </c>
-      <c r="E7" s="24">
+      <c r="E7" s="19">
         <v>364336</v>
       </c>
       <c r="F7" s="13" t="s">
@@ -1691,13 +1853,13 @@
       <c r="B8" s="15">
         <v>45940</v>
       </c>
-      <c r="C8" s="24">
+      <c r="C8" s="19">
         <v>0</v>
       </c>
-      <c r="D8" s="24">
+      <c r="D8" s="19">
         <v>30048</v>
       </c>
-      <c r="E8" s="24">
+      <c r="E8" s="19">
         <v>334288</v>
       </c>
       <c r="F8" s="13" t="s">
@@ -1717,13 +1879,13 @@
       <c r="B9" s="15">
         <v>45940</v>
       </c>
-      <c r="C9" s="24">
+      <c r="C9" s="19">
         <v>0</v>
       </c>
-      <c r="D9" s="24">
+      <c r="D9" s="19">
         <v>30000</v>
       </c>
-      <c r="E9" s="24">
+      <c r="E9" s="19">
         <v>304288</v>
       </c>
       <c r="F9" s="13" t="s">
@@ -1743,13 +1905,13 @@
       <c r="B10" s="15">
         <v>45941</v>
       </c>
-      <c r="C10" s="24">
+      <c r="C10" s="19">
         <v>0</v>
       </c>
-      <c r="D10" s="24">
+      <c r="D10" s="19">
         <v>40000</v>
       </c>
-      <c r="E10" s="24">
+      <c r="E10" s="19">
         <v>264288</v>
       </c>
       <c r="F10" s="13" t="s">
@@ -1769,13 +1931,13 @@
       <c r="B11" s="15">
         <v>45944</v>
       </c>
-      <c r="C11" s="24">
+      <c r="C11" s="19">
         <v>0</v>
       </c>
-      <c r="D11" s="24">
+      <c r="D11" s="19">
         <v>500</v>
       </c>
-      <c r="E11" s="24">
+      <c r="E11" s="19">
         <v>263788</v>
       </c>
       <c r="F11" s="13" t="s">
@@ -1793,23 +1955,149 @@
       <c r="B12" s="15">
         <v>45944</v>
       </c>
-      <c r="C12" s="24">
+      <c r="C12" s="19">
         <v>0</v>
       </c>
-      <c r="D12" s="24">
+      <c r="D12" s="19">
         <v>12000</v>
       </c>
-      <c r="E12" s="24">
+      <c r="E12" s="19">
         <v>251788</v>
       </c>
       <c r="F12" s="13" t="s">
         <v>69</v>
       </c>
-      <c r="G12" s="33">
+      <c r="G12" s="28">
         <v>9160193179</v>
       </c>
       <c r="H12" s="13" t="s">
         <v>93</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A13" s="7">
+        <v>12</v>
+      </c>
+      <c r="B13" s="15">
+        <v>45945</v>
+      </c>
+      <c r="C13" s="19">
+        <v>0</v>
+      </c>
+      <c r="D13" s="19">
+        <v>18000</v>
+      </c>
+      <c r="E13" s="19">
+        <v>233788</v>
+      </c>
+      <c r="F13" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="G13" s="28">
+        <v>8897779329</v>
+      </c>
+      <c r="H13" s="13" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A14" s="7">
+        <v>13</v>
+      </c>
+      <c r="B14" s="15">
+        <v>45946</v>
+      </c>
+      <c r="C14" s="19">
+        <v>0</v>
+      </c>
+      <c r="D14" s="19">
+        <v>10000</v>
+      </c>
+      <c r="E14" s="19">
+        <v>223788</v>
+      </c>
+      <c r="F14" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="G14" s="28"/>
+      <c r="H14" s="13" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A15" s="7">
+        <v>14</v>
+      </c>
+      <c r="B15" s="15">
+        <v>45946</v>
+      </c>
+      <c r="C15" s="19">
+        <v>0</v>
+      </c>
+      <c r="D15" s="19">
+        <v>21000</v>
+      </c>
+      <c r="E15" s="19">
+        <v>202788</v>
+      </c>
+      <c r="F15" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="G15" s="13">
+        <v>7904162873</v>
+      </c>
+      <c r="H15" s="13" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A16" s="7">
+        <v>15</v>
+      </c>
+      <c r="B16" s="15">
+        <v>45946</v>
+      </c>
+      <c r="C16" s="31">
+        <v>0</v>
+      </c>
+      <c r="D16" s="31">
+        <v>51392</v>
+      </c>
+      <c r="E16" s="31">
+        <v>151396</v>
+      </c>
+      <c r="F16" s="32" t="s">
+        <v>69</v>
+      </c>
+      <c r="G16" s="13">
+        <v>7904162873</v>
+      </c>
+      <c r="H16" s="13" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A17" s="33">
+        <v>16</v>
+      </c>
+      <c r="B17" s="15">
+        <v>45946</v>
+      </c>
+      <c r="C17" s="19">
+        <v>0</v>
+      </c>
+      <c r="D17" s="19">
+        <v>50000</v>
+      </c>
+      <c r="E17" s="19">
+        <v>101396</v>
+      </c>
+      <c r="F17" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="G17" s="13"/>
+      <c r="H17" s="13" t="s">
+        <v>71</v>
       </c>
     </row>
   </sheetData>
@@ -1819,10 +2107,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38E521D2-0E53-43DA-846D-54C42DBE6A26}">
-  <dimension ref="A1:O14"/>
+  <dimension ref="A1:O17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M13" sqref="M13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q20" sqref="Q20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1845,724 +2133,877 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" s="17" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="17" t="s">
+      <c r="B1" s="34" t="s">
         <v>39</v>
       </c>
-      <c r="C1" s="17" t="s">
+      <c r="C1" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="17" t="s">
+      <c r="D1" s="34" t="s">
         <v>78</v>
       </c>
-      <c r="E1" s="17" t="s">
+      <c r="E1" s="34" t="s">
         <v>80</v>
       </c>
-      <c r="F1" s="17" t="s">
+      <c r="F1" s="34" t="s">
         <v>61</v>
       </c>
-      <c r="G1" s="17" t="s">
+      <c r="G1" s="34" t="s">
         <v>82</v>
       </c>
-      <c r="H1" s="17" t="s">
+      <c r="H1" s="34" t="s">
         <v>83</v>
       </c>
-      <c r="I1" s="17" t="s">
+      <c r="I1" s="34" t="s">
         <v>62</v>
       </c>
-      <c r="J1" s="17" t="s">
+      <c r="J1" s="34" t="s">
         <v>79</v>
       </c>
-      <c r="K1" s="22" t="s">
+      <c r="K1" s="35" t="s">
         <v>84</v>
       </c>
-      <c r="L1" s="17" t="s">
+      <c r="L1" s="34" t="s">
         <v>81</v>
       </c>
-      <c r="M1" s="17" t="s">
+      <c r="M1" s="34" t="s">
         <v>91</v>
       </c>
-      <c r="N1" s="17" t="s">
+      <c r="N1" s="34" t="s">
         <v>89</v>
       </c>
-      <c r="O1" s="17" t="s">
+      <c r="O1" s="34" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A2" s="16">
+      <c r="A2" s="36">
         <v>1</v>
       </c>
-      <c r="B2" s="18">
+      <c r="B2" s="30">
         <v>45931</v>
       </c>
-      <c r="C2" s="18" t="s">
+      <c r="C2" s="30" t="s">
         <v>56</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="37">
         <v>19.39</v>
       </c>
-      <c r="E2">
-        <f>D2*400</f>
-        <v>7756</v>
-      </c>
-      <c r="F2">
+      <c r="E2" s="37">
+        <f>D2*1200</f>
+        <v>23268</v>
+      </c>
+      <c r="F2" s="37">
         <v>10000</v>
       </c>
-      <c r="G2">
+      <c r="G2" s="37">
         <v>1000</v>
       </c>
-      <c r="H2">
+      <c r="H2" s="37">
         <v>10000</v>
       </c>
-      <c r="I2">
+      <c r="I2" s="37">
         <v>2000</v>
       </c>
-      <c r="J2">
+      <c r="J2" s="37">
         <v>700</v>
       </c>
-      <c r="K2">
+      <c r="K2" s="37">
         <v>300</v>
       </c>
-      <c r="L2">
+      <c r="L2" s="37">
         <v>200</v>
       </c>
-      <c r="M2">
+      <c r="M2" s="37">
         <f>E2+F2+G2+H2+I2+J2+K2+L2</f>
-        <v>31956</v>
-      </c>
-      <c r="N2" s="19">
+        <v>47468</v>
+      </c>
+      <c r="N2" s="38">
         <f>D2*2160</f>
         <v>41882.400000000001</v>
       </c>
-      <c r="O2" s="19">
+      <c r="O2" s="38">
         <f>N2-M2</f>
-        <v>9926.4000000000015</v>
+        <v>-5585.5999999999985</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A3" s="16">
+      <c r="A3" s="36">
         <v>2</v>
       </c>
-      <c r="B3" s="18">
+      <c r="B3" s="30">
         <v>45936</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="37">
         <v>18.54</v>
       </c>
-      <c r="E3">
-        <f t="shared" ref="E3:E13" si="0">D3*400</f>
-        <v>7416</v>
-      </c>
-      <c r="F3">
+      <c r="E3" s="37">
+        <f t="shared" ref="E3:E16" si="0">D3*1200</f>
+        <v>22248</v>
+      </c>
+      <c r="F3" s="37">
         <v>10000</v>
       </c>
-      <c r="G3">
+      <c r="G3" s="37">
         <v>1000</v>
       </c>
-      <c r="H3">
+      <c r="H3" s="37">
         <v>16000</v>
       </c>
-      <c r="I3">
+      <c r="I3" s="37">
         <v>2000</v>
       </c>
-      <c r="J3">
+      <c r="J3" s="37">
         <v>700</v>
       </c>
-      <c r="K3">
+      <c r="K3" s="37">
         <v>300</v>
       </c>
-      <c r="L3">
+      <c r="L3" s="37">
         <v>200</v>
       </c>
-      <c r="M3">
-        <f t="shared" ref="M3:M13" si="1">E3+F3+G3+H3+I3+J3+K3+L3</f>
-        <v>37616</v>
-      </c>
-      <c r="N3" s="19">
-        <f t="shared" ref="N3:N13" si="2">D3*2160</f>
+      <c r="M3" s="37">
+        <f t="shared" ref="M3:M16" si="1">E3+F3+G3+H3+I3+J3+K3+L3</f>
+        <v>52448</v>
+      </c>
+      <c r="N3" s="38">
+        <f t="shared" ref="N3:N16" si="2">D3*2160</f>
         <v>40046.400000000001</v>
       </c>
-      <c r="O3" s="19">
-        <f t="shared" ref="O3:O13" si="3">N3-M3</f>
-        <v>2430.4000000000015</v>
+      <c r="O3" s="38">
+        <f t="shared" ref="O3:O16" si="3">N3-M3</f>
+        <v>-12401.599999999999</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A4" s="16">
+      <c r="A4" s="36">
         <v>3</v>
       </c>
-      <c r="B4" s="18">
+      <c r="B4" s="30">
         <v>45937</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="37">
         <v>27.89</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="37">
         <f t="shared" si="0"/>
-        <v>11156</v>
-      </c>
-      <c r="F4">
+        <v>33468</v>
+      </c>
+      <c r="F4" s="37">
         <v>10000</v>
       </c>
-      <c r="G4">
+      <c r="G4" s="37">
         <v>1000</v>
       </c>
-      <c r="H4">
+      <c r="H4" s="37">
         <v>10000</v>
       </c>
-      <c r="I4">
+      <c r="I4" s="37">
         <v>2000</v>
       </c>
-      <c r="J4">
+      <c r="J4" s="37">
         <v>700</v>
       </c>
-      <c r="K4">
+      <c r="K4" s="37">
         <v>300</v>
       </c>
-      <c r="L4">
+      <c r="L4" s="37">
         <v>200</v>
       </c>
-      <c r="M4">
+      <c r="M4" s="37">
         <f t="shared" si="1"/>
-        <v>35356</v>
-      </c>
-      <c r="N4" s="19">
+        <v>57668</v>
+      </c>
+      <c r="N4" s="38">
         <f t="shared" si="2"/>
         <v>60242.400000000001</v>
       </c>
-      <c r="O4" s="19">
+      <c r="O4" s="38">
         <f t="shared" si="3"/>
-        <v>24886.400000000001</v>
+        <v>2574.4000000000015</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A5" s="16">
+      <c r="A5" s="36">
         <v>4</v>
       </c>
-      <c r="B5" s="18">
+      <c r="B5" s="30">
         <v>45938</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="37">
         <v>20</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="37">
         <f t="shared" si="0"/>
-        <v>8000</v>
-      </c>
-      <c r="F5">
+        <v>24000</v>
+      </c>
+      <c r="F5" s="37">
         <v>10000</v>
       </c>
-      <c r="G5">
+      <c r="G5" s="37">
         <v>1000</v>
       </c>
-      <c r="H5">
+      <c r="H5" s="37">
         <v>12000</v>
       </c>
-      <c r="I5">
+      <c r="I5" s="37">
         <v>2000</v>
       </c>
-      <c r="J5">
+      <c r="J5" s="37">
         <v>700</v>
       </c>
-      <c r="K5">
+      <c r="K5" s="37">
         <v>300</v>
       </c>
-      <c r="L5">
+      <c r="L5" s="37">
         <v>200</v>
       </c>
-      <c r="M5">
+      <c r="M5" s="37">
         <f t="shared" si="1"/>
-        <v>34200</v>
-      </c>
-      <c r="N5" s="19">
+        <v>50200</v>
+      </c>
+      <c r="N5" s="38">
         <f t="shared" si="2"/>
         <v>43200</v>
       </c>
-      <c r="O5" s="19">
+      <c r="O5" s="38">
         <f t="shared" si="3"/>
-        <v>9000</v>
+        <v>-7000</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A6" s="16">
+      <c r="A6" s="36">
         <v>5</v>
       </c>
-      <c r="B6" s="18">
+      <c r="B6" s="30">
         <v>45939</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="37">
         <v>20.079999999999998</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="37">
         <f t="shared" si="0"/>
-        <v>8031.9999999999991</v>
-      </c>
-      <c r="F6">
+        <v>24095.999999999996</v>
+      </c>
+      <c r="F6" s="37">
         <v>10000</v>
       </c>
-      <c r="G6">
+      <c r="G6" s="37">
         <v>1000</v>
       </c>
-      <c r="H6">
+      <c r="H6" s="37">
         <v>11000</v>
       </c>
-      <c r="I6">
+      <c r="I6" s="37">
         <v>2000</v>
       </c>
-      <c r="J6">
+      <c r="J6" s="37">
         <v>700</v>
       </c>
-      <c r="K6">
+      <c r="K6" s="37">
         <v>300</v>
       </c>
-      <c r="L6">
+      <c r="L6" s="37">
         <v>200</v>
       </c>
-      <c r="M6">
+      <c r="M6" s="37">
         <f t="shared" si="1"/>
-        <v>33232</v>
-      </c>
-      <c r="N6" s="19">
+        <v>49296</v>
+      </c>
+      <c r="N6" s="38">
         <f t="shared" si="2"/>
         <v>43372.799999999996</v>
       </c>
-      <c r="O6" s="19">
+      <c r="O6" s="38">
         <f t="shared" si="3"/>
-        <v>10140.799999999996</v>
+        <v>-5923.2000000000044</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A7" s="16">
+      <c r="A7" s="36">
         <v>6</v>
       </c>
-      <c r="B7" s="18">
+      <c r="B7" s="30">
         <v>45939</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="37">
         <v>27.63</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="37">
         <f t="shared" si="0"/>
-        <v>11052</v>
-      </c>
-      <c r="F7">
+        <v>33156</v>
+      </c>
+      <c r="F7" s="37">
         <v>10000</v>
       </c>
-      <c r="G7">
+      <c r="G7" s="37">
         <v>1000</v>
       </c>
-      <c r="H7">
+      <c r="H7" s="37">
         <v>10000</v>
       </c>
-      <c r="I7">
+      <c r="I7" s="37">
         <v>0</v>
       </c>
-      <c r="J7">
+      <c r="J7" s="37">
         <v>700</v>
       </c>
-      <c r="K7">
+      <c r="K7" s="37">
         <v>300</v>
       </c>
-      <c r="L7">
+      <c r="L7" s="37">
         <v>200</v>
       </c>
-      <c r="M7">
+      <c r="M7" s="37">
         <f t="shared" si="1"/>
-        <v>33252</v>
-      </c>
-      <c r="N7" s="19">
+        <v>55356</v>
+      </c>
+      <c r="N7" s="38">
         <f t="shared" si="2"/>
         <v>59680.799999999996</v>
       </c>
-      <c r="O7" s="19">
+      <c r="O7" s="38">
         <f t="shared" si="3"/>
-        <v>26428.799999999996</v>
+        <v>4324.7999999999956</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A8" s="16">
+      <c r="A8" s="36">
         <v>7</v>
       </c>
-      <c r="B8" s="18">
+      <c r="B8" s="30">
         <v>45939</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="37" t="s">
         <v>19</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="37">
         <v>27.09</v>
       </c>
-      <c r="E8">
+      <c r="E8" s="37">
         <f t="shared" si="0"/>
-        <v>10836</v>
-      </c>
-      <c r="F8">
+        <v>32508</v>
+      </c>
+      <c r="F8" s="37">
         <v>10000</v>
       </c>
-      <c r="G8">
+      <c r="G8" s="37">
         <v>1000</v>
       </c>
-      <c r="H8">
+      <c r="H8" s="37">
         <v>10000</v>
       </c>
-      <c r="I8">
+      <c r="I8" s="37">
         <v>0</v>
       </c>
-      <c r="J8">
+      <c r="J8" s="37">
         <v>700</v>
       </c>
-      <c r="K8">
+      <c r="K8" s="37">
         <v>300</v>
       </c>
-      <c r="L8">
+      <c r="L8" s="37">
         <v>200</v>
       </c>
-      <c r="M8">
+      <c r="M8" s="37">
         <f t="shared" si="1"/>
-        <v>33036</v>
-      </c>
-      <c r="N8" s="19">
+        <v>54708</v>
+      </c>
+      <c r="N8" s="38">
         <f t="shared" si="2"/>
         <v>58514.400000000001</v>
       </c>
-      <c r="O8" s="19">
+      <c r="O8" s="38">
         <f t="shared" si="3"/>
-        <v>25478.400000000001</v>
+        <v>3806.4000000000015</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A9" s="16">
+      <c r="A9" s="36">
         <v>8</v>
       </c>
-      <c r="B9" s="18">
+      <c r="B9" s="30">
         <v>45940</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="37">
         <v>26.22</v>
       </c>
-      <c r="E9">
+      <c r="E9" s="37">
         <f t="shared" si="0"/>
-        <v>10488</v>
-      </c>
-      <c r="F9">
+        <v>31464</v>
+      </c>
+      <c r="F9" s="37">
         <v>10000</v>
       </c>
-      <c r="G9">
+      <c r="G9" s="37">
         <v>1000</v>
       </c>
-      <c r="H9">
+      <c r="H9" s="37">
         <v>10000</v>
       </c>
-      <c r="I9">
+      <c r="I9" s="37">
         <v>2000</v>
       </c>
-      <c r="J9">
+      <c r="J9" s="37">
         <v>700</v>
       </c>
-      <c r="K9">
+      <c r="K9" s="37">
         <v>300</v>
       </c>
-      <c r="L9">
+      <c r="L9" s="37">
         <v>200</v>
       </c>
-      <c r="M9">
+      <c r="M9" s="37">
         <f t="shared" si="1"/>
-        <v>34688</v>
-      </c>
-      <c r="N9" s="19">
+        <v>55664</v>
+      </c>
+      <c r="N9" s="38">
         <f t="shared" si="2"/>
         <v>56635.199999999997</v>
       </c>
-      <c r="O9" s="19">
+      <c r="O9" s="38">
         <f t="shared" si="3"/>
-        <v>21947.199999999997</v>
+        <v>971.19999999999709</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A10" s="16">
+      <c r="A10" s="36">
         <v>9</v>
       </c>
-      <c r="B10" s="18">
+      <c r="B10" s="30">
         <v>45940</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" s="37" t="s">
         <v>19</v>
       </c>
-      <c r="D10">
+      <c r="D10" s="37">
         <v>26.32</v>
       </c>
-      <c r="E10">
+      <c r="E10" s="37">
         <f t="shared" si="0"/>
-        <v>10528</v>
-      </c>
-      <c r="F10">
+        <v>31584</v>
+      </c>
+      <c r="F10" s="37">
         <v>10000</v>
       </c>
-      <c r="G10">
+      <c r="G10" s="37">
         <v>1000</v>
       </c>
-      <c r="H10">
+      <c r="H10" s="37">
         <v>10000</v>
       </c>
-      <c r="I10">
+      <c r="I10" s="37">
         <v>0</v>
       </c>
-      <c r="J10">
+      <c r="J10" s="37">
         <v>700</v>
       </c>
-      <c r="K10">
+      <c r="K10" s="37">
         <v>300</v>
       </c>
-      <c r="L10">
+      <c r="L10" s="37">
         <v>200</v>
       </c>
-      <c r="M10">
+      <c r="M10" s="37">
         <f t="shared" si="1"/>
-        <v>32728</v>
-      </c>
-      <c r="N10" s="19">
+        <v>53784</v>
+      </c>
+      <c r="N10" s="38">
         <f t="shared" si="2"/>
         <v>56851.199999999997</v>
       </c>
-      <c r="O10" s="19">
+      <c r="O10" s="38">
         <f t="shared" si="3"/>
-        <v>24123.199999999997</v>
+        <v>3067.1999999999971</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A11" s="16">
+      <c r="A11" s="36">
         <v>10</v>
       </c>
-      <c r="B11" s="18">
+      <c r="B11" s="30">
         <v>45940</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="D11">
+      <c r="D11" s="37">
         <v>20.37</v>
       </c>
-      <c r="E11">
+      <c r="E11" s="37">
         <f t="shared" si="0"/>
-        <v>8148</v>
-      </c>
-      <c r="F11">
+        <v>24444</v>
+      </c>
+      <c r="F11" s="37">
         <v>10000</v>
       </c>
-      <c r="G11">
+      <c r="G11" s="37">
         <v>1000</v>
       </c>
-      <c r="H11">
+      <c r="H11" s="37">
         <v>11000</v>
       </c>
-      <c r="I11">
+      <c r="I11" s="37">
         <v>0</v>
       </c>
-      <c r="J11">
+      <c r="J11" s="37">
         <v>700</v>
       </c>
-      <c r="K11">
+      <c r="K11" s="37">
         <v>300</v>
       </c>
-      <c r="L11">
+      <c r="L11" s="37">
         <v>200</v>
       </c>
-      <c r="M11">
+      <c r="M11" s="37">
         <f t="shared" si="1"/>
-        <v>31348</v>
-      </c>
-      <c r="N11" s="19">
+        <v>47644</v>
+      </c>
+      <c r="N11" s="38">
         <f t="shared" si="2"/>
         <v>43999.200000000004</v>
       </c>
-      <c r="O11" s="19">
+      <c r="O11" s="38">
         <f t="shared" si="3"/>
-        <v>12651.200000000004</v>
+        <v>-3644.7999999999956</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A12" s="16">
+      <c r="A12" s="36">
         <v>11</v>
       </c>
-      <c r="B12" s="18">
+      <c r="B12" s="30">
         <v>45942</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C12" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="D12">
+      <c r="D12" s="37">
         <v>23.04</v>
       </c>
-      <c r="E12">
+      <c r="E12" s="37">
         <f t="shared" si="0"/>
-        <v>9216</v>
-      </c>
-      <c r="F12">
+        <v>27648</v>
+      </c>
+      <c r="F12" s="37">
         <v>10000</v>
       </c>
-      <c r="G12">
+      <c r="G12" s="37">
         <v>1000</v>
       </c>
-      <c r="H12">
+      <c r="H12" s="37">
         <v>11000</v>
       </c>
-      <c r="I12">
+      <c r="I12" s="37">
         <v>2000</v>
       </c>
-      <c r="J12">
+      <c r="J12" s="37">
         <v>700</v>
       </c>
-      <c r="K12">
+      <c r="K12" s="37">
         <v>300</v>
       </c>
-      <c r="L12">
+      <c r="L12" s="37">
         <v>200</v>
       </c>
-      <c r="M12">
+      <c r="M12" s="37">
         <f t="shared" si="1"/>
-        <v>34416</v>
-      </c>
-      <c r="N12" s="19">
+        <v>52848</v>
+      </c>
+      <c r="N12" s="38">
         <f t="shared" si="2"/>
         <v>49766.400000000001</v>
       </c>
-      <c r="O12" s="19">
+      <c r="O12" s="38">
         <f t="shared" si="3"/>
-        <v>15350.400000000001</v>
+        <v>-3081.5999999999985</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A13" s="16">
+      <c r="A13" s="36">
         <v>12</v>
       </c>
-      <c r="B13" s="18">
+      <c r="B13" s="30">
         <v>45944</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C13" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="D13">
+      <c r="D13" s="37">
         <v>20.04</v>
       </c>
-      <c r="E13">
+      <c r="E13" s="37">
         <f t="shared" si="0"/>
-        <v>8016</v>
-      </c>
-      <c r="F13">
+        <v>24048</v>
+      </c>
+      <c r="F13" s="37">
         <v>10000</v>
       </c>
-      <c r="G13">
+      <c r="G13" s="37">
         <v>1000</v>
       </c>
-      <c r="H13">
+      <c r="H13" s="37">
         <v>12000</v>
       </c>
-      <c r="I13">
+      <c r="I13" s="37">
         <v>2000</v>
       </c>
-      <c r="J13">
+      <c r="J13" s="37">
         <v>700</v>
       </c>
-      <c r="K13">
+      <c r="K13" s="37">
         <v>300</v>
       </c>
-      <c r="L13">
+      <c r="L13" s="37">
         <v>200</v>
       </c>
-      <c r="M13">
+      <c r="M13" s="37">
         <f t="shared" si="1"/>
-        <v>34216</v>
-      </c>
-      <c r="N13" s="19">
+        <v>50248</v>
+      </c>
+      <c r="N13" s="38">
         <f t="shared" si="2"/>
         <v>43286.400000000001</v>
       </c>
-      <c r="O13" s="19">
+      <c r="O13" s="38">
         <f t="shared" si="3"/>
-        <v>9070.4000000000015</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="21">
+        <v>-6961.5999999999985</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A14" s="36">
+        <v>13</v>
+      </c>
+      <c r="B14" s="30">
+        <v>45946</v>
+      </c>
+      <c r="C14" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="D14" s="37">
+        <v>19.829999999999998</v>
+      </c>
+      <c r="E14" s="37">
+        <f t="shared" si="0"/>
+        <v>23795.999999999996</v>
+      </c>
+      <c r="F14" s="37">
+        <v>10000</v>
+      </c>
+      <c r="G14" s="37">
+        <v>1000</v>
+      </c>
+      <c r="H14" s="43">
+        <v>10000</v>
+      </c>
+      <c r="I14" s="37">
+        <v>2000</v>
+      </c>
+      <c r="J14" s="37">
+        <v>700</v>
+      </c>
+      <c r="K14" s="37">
+        <v>300</v>
+      </c>
+      <c r="L14" s="37">
+        <v>200</v>
+      </c>
+      <c r="M14" s="37">
+        <f>E14+F14+G14+H14+I14+J14+K14+L14</f>
+        <v>47996</v>
+      </c>
+      <c r="N14" s="38">
+        <f>D14*2160</f>
+        <v>42832.799999999996</v>
+      </c>
+      <c r="O14" s="38">
+        <f t="shared" si="3"/>
+        <v>-5163.2000000000044</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A15" s="36">
+        <v>14</v>
+      </c>
+      <c r="B15" s="30">
+        <v>45946</v>
+      </c>
+      <c r="C15" s="37" t="s">
+        <v>102</v>
+      </c>
+      <c r="D15" s="37">
+        <v>28.52</v>
+      </c>
+      <c r="E15" s="37">
+        <f t="shared" si="0"/>
+        <v>34224</v>
+      </c>
+      <c r="F15" s="37">
+        <v>10000</v>
+      </c>
+      <c r="G15" s="37">
+        <v>1000</v>
+      </c>
+      <c r="H15" s="43">
+        <v>10000</v>
+      </c>
+      <c r="I15" s="37">
+        <v>2000</v>
+      </c>
+      <c r="J15" s="37">
+        <v>700</v>
+      </c>
+      <c r="K15" s="37">
+        <v>300</v>
+      </c>
+      <c r="L15" s="37">
+        <v>200</v>
+      </c>
+      <c r="M15" s="37">
+        <f t="shared" si="1"/>
+        <v>58424</v>
+      </c>
+      <c r="N15" s="38">
+        <f t="shared" si="2"/>
+        <v>61603.199999999997</v>
+      </c>
+      <c r="O15" s="38">
+        <f t="shared" si="3"/>
+        <v>3179.1999999999971</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A16" s="36">
+        <v>15</v>
+      </c>
+      <c r="B16" s="30">
+        <v>45946</v>
+      </c>
+      <c r="C16" s="37" t="s">
+        <v>101</v>
+      </c>
+      <c r="D16" s="37">
+        <v>27.64</v>
+      </c>
+      <c r="E16" s="37">
+        <f t="shared" si="0"/>
+        <v>33168</v>
+      </c>
+      <c r="F16" s="37">
+        <v>10000</v>
+      </c>
+      <c r="G16" s="37">
+        <v>1000</v>
+      </c>
+      <c r="H16" s="43">
+        <v>10000</v>
+      </c>
+      <c r="I16" s="37">
+        <v>2000</v>
+      </c>
+      <c r="J16" s="37">
+        <v>700</v>
+      </c>
+      <c r="K16" s="37">
+        <v>300</v>
+      </c>
+      <c r="L16" s="37">
+        <v>200</v>
+      </c>
+      <c r="M16" s="37">
+        <f t="shared" si="1"/>
+        <v>57368</v>
+      </c>
+      <c r="N16" s="38">
+        <f t="shared" si="2"/>
+        <v>59702.400000000001</v>
+      </c>
+      <c r="O16" s="38">
+        <f t="shared" si="3"/>
+        <v>2334.4000000000015</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="39">
         <v>100</v>
       </c>
-      <c r="B14" s="34" t="s">
+      <c r="B17" s="40" t="s">
         <v>63</v>
       </c>
-      <c r="C14" s="34"/>
-      <c r="D14" s="1">
-        <f t="shared" ref="D14:O14" si="4">SUM(D2:D13)</f>
-        <v>276.61</v>
-      </c>
-      <c r="E14" s="1">
-        <f t="shared" si="4"/>
-        <v>110644</v>
-      </c>
-      <c r="F14" s="1">
-        <f t="shared" si="4"/>
-        <v>120000</v>
-      </c>
-      <c r="G14" s="1">
-        <f t="shared" si="4"/>
-        <v>12000</v>
-      </c>
-      <c r="H14" s="1">
-        <f t="shared" si="4"/>
-        <v>133000</v>
-      </c>
-      <c r="I14" s="1">
-        <f t="shared" si="4"/>
-        <v>16000</v>
-      </c>
-      <c r="J14" s="1">
-        <f t="shared" si="4"/>
-        <v>8400</v>
-      </c>
-      <c r="K14" s="1">
-        <f t="shared" si="4"/>
-        <v>3600</v>
-      </c>
-      <c r="L14" s="1">
-        <f t="shared" si="4"/>
-        <v>2400</v>
-      </c>
-      <c r="M14" s="1">
-        <f t="shared" si="4"/>
-        <v>406044</v>
-      </c>
-      <c r="N14" s="23">
-        <f t="shared" si="4"/>
-        <v>597477.60000000009</v>
-      </c>
-      <c r="O14" s="23">
-        <f t="shared" si="4"/>
-        <v>191433.59999999998</v>
+      <c r="C17" s="40"/>
+      <c r="D17" s="41">
+        <f>SUM(D2:D16)</f>
+        <v>352.59999999999997</v>
+      </c>
+      <c r="E17" s="41">
+        <f>SUM(E2:E16)</f>
+        <v>423120</v>
+      </c>
+      <c r="F17" s="41">
+        <f>SUM(F2:F16)</f>
+        <v>150000</v>
+      </c>
+      <c r="G17" s="41">
+        <f>SUM(G2:G16)</f>
+        <v>15000</v>
+      </c>
+      <c r="H17" s="41">
+        <f>SUM(H2:H16)</f>
+        <v>163000</v>
+      </c>
+      <c r="I17" s="41">
+        <f>SUM(I2:I16)</f>
+        <v>22000</v>
+      </c>
+      <c r="J17" s="41">
+        <f>SUM(J2:J16)</f>
+        <v>10500</v>
+      </c>
+      <c r="K17" s="41">
+        <f>SUM(K2:K16)</f>
+        <v>4500</v>
+      </c>
+      <c r="L17" s="41">
+        <f>SUM(L2:L16)</f>
+        <v>3000</v>
+      </c>
+      <c r="M17" s="41">
+        <f>SUM(M2:M16)</f>
+        <v>791120</v>
+      </c>
+      <c r="N17" s="42">
+        <f>SUM(N2:N16)</f>
+        <v>761616.00000000012</v>
+      </c>
+      <c r="O17" s="42">
+        <f>SUM(O2:O16)</f>
+        <v>-29504.000000000007</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B17:C17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Nellore_Data.xlsx
+++ b/Nellore_Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Nellore\ShakthiOnlineApp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4D07101-ACEB-4C95-960E-B8E6A5FBEBCF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{464B61A6-1525-4A99-B902-0CF728769C7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Invoice_Data" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="112">
   <si>
     <t>S No</t>
   </si>
@@ -346,6 +346,24 @@
   </si>
   <si>
     <t>Rajendar</t>
+  </si>
+  <si>
+    <t>WGL/SGSL/A-0343</t>
+  </si>
+  <si>
+    <t>WGL/SGSL/A-0344</t>
+  </si>
+  <si>
+    <t>TN 87 E 1750</t>
+  </si>
+  <si>
+    <t>TN 87 A 5632</t>
+  </si>
+  <si>
+    <t>1522 4352 0790</t>
+  </si>
+  <si>
+    <t>1722 4352 1856</t>
   </si>
 </sst>
 </file>
@@ -417,7 +435,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -488,22 +506,22 @@
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -513,7 +531,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -794,10 +811,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L17"/>
+  <dimension ref="A1:L19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J14" sqref="J14:J16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J17" sqref="J17:J18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1345,7 +1362,7 @@
         <v>42832</v>
       </c>
       <c r="L14" s="25" t="s">
-        <v>98</v>
+        <v>54</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.3">
@@ -1383,7 +1400,7 @@
         <v>61603</v>
       </c>
       <c r="L15" s="25" t="s">
-        <v>98</v>
+        <v>54</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.3">
@@ -1421,32 +1438,108 @@
         <v>59702</v>
       </c>
       <c r="L16" s="25" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A17" s="2">
+        <v>16</v>
+      </c>
+      <c r="B17" s="25" t="s">
+        <v>106</v>
+      </c>
+      <c r="C17" s="26">
+        <v>45947</v>
+      </c>
+      <c r="D17" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="E17" s="25" t="s">
+        <v>108</v>
+      </c>
+      <c r="F17" s="25" t="s">
+        <v>110</v>
+      </c>
+      <c r="G17" s="26">
+        <v>45949</v>
+      </c>
+      <c r="H17" s="25">
+        <v>237</v>
+      </c>
+      <c r="I17" s="26">
+        <v>45947</v>
+      </c>
+      <c r="J17" s="25">
+        <v>26.88</v>
+      </c>
+      <c r="K17" s="29">
+        <v>58060</v>
+      </c>
+      <c r="L17" s="25" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="17" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="4">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A18" s="2">
+        <v>17</v>
+      </c>
+      <c r="B18" s="25" t="s">
+        <v>107</v>
+      </c>
+      <c r="C18" s="26">
+        <v>45947</v>
+      </c>
+      <c r="D18" s="26" t="s">
+        <v>34</v>
+      </c>
+      <c r="E18" s="25" t="s">
+        <v>109</v>
+      </c>
+      <c r="F18" s="25" t="s">
+        <v>111</v>
+      </c>
+      <c r="G18" s="26">
+        <v>45949</v>
+      </c>
+      <c r="H18" s="25">
+        <v>238</v>
+      </c>
+      <c r="I18" s="26">
+        <v>45947</v>
+      </c>
+      <c r="J18" s="25">
+        <v>23.33</v>
+      </c>
+      <c r="K18" s="29">
+        <v>50392</v>
+      </c>
+      <c r="L18" s="25" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="4">
         <v>100</v>
       </c>
-      <c r="B17" s="5"/>
-      <c r="C17" s="27"/>
-      <c r="D17" s="27"/>
-      <c r="E17" s="27"/>
-      <c r="F17" s="27"/>
-      <c r="G17" s="27"/>
-      <c r="H17" s="27"/>
-      <c r="I17" s="27" t="s">
+      <c r="B19" s="5"/>
+      <c r="C19" s="27"/>
+      <c r="D19" s="27"/>
+      <c r="E19" s="27"/>
+      <c r="F19" s="27"/>
+      <c r="G19" s="27"/>
+      <c r="H19" s="27"/>
+      <c r="I19" s="27" t="s">
         <v>59</v>
       </c>
-      <c r="J17" s="5">
-        <f>SUM(J2:J16)</f>
-        <v>352.59999999999997</v>
-      </c>
-      <c r="K17" s="5">
-        <f>SUM(K2:K16)</f>
-        <v>761610</v>
-      </c>
-      <c r="L17" s="5"/>
+      <c r="J19" s="5">
+        <f>SUM(J2:J18)</f>
+        <v>402.80999999999995</v>
+      </c>
+      <c r="K19" s="5">
+        <f>SUM(K2:K18)</f>
+        <v>870062</v>
+      </c>
+      <c r="L19" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1652,10 +1745,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{100B4ED9-C387-47BC-8EF7-F2DAC64DD522}">
-  <dimension ref="A1:H17"/>
+  <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+      <selection activeCell="L20" sqref="L20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2057,16 +2150,16 @@
       <c r="B16" s="15">
         <v>45946</v>
       </c>
-      <c r="C16" s="31">
+      <c r="C16" s="19">
         <v>0</v>
       </c>
-      <c r="D16" s="31">
+      <c r="D16" s="19">
         <v>51392</v>
       </c>
-      <c r="E16" s="31">
+      <c r="E16" s="19">
         <v>151396</v>
       </c>
-      <c r="F16" s="32" t="s">
+      <c r="F16" s="13" t="s">
         <v>69</v>
       </c>
       <c r="G16" s="13">
@@ -2077,7 +2170,7 @@
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A17" s="33">
+      <c r="A17" s="30">
         <v>16</v>
       </c>
       <c r="B17" s="15">
@@ -2098,6 +2191,80 @@
       <c r="G17" s="13"/>
       <c r="H17" s="13" t="s">
         <v>71</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A18" s="30">
+        <v>17</v>
+      </c>
+      <c r="B18" s="15">
+        <v>45947</v>
+      </c>
+      <c r="C18" s="34">
+        <v>0</v>
+      </c>
+      <c r="D18" s="19">
+        <v>40252</v>
+      </c>
+      <c r="E18" s="19">
+        <v>61144</v>
+      </c>
+      <c r="F18" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="G18" s="13">
+        <v>7904162873</v>
+      </c>
+      <c r="H18" s="13" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A19" s="30">
+        <v>18</v>
+      </c>
+      <c r="B19" s="15">
+        <v>45947</v>
+      </c>
+      <c r="C19" s="34">
+        <v>0</v>
+      </c>
+      <c r="D19" s="34">
+        <v>30000</v>
+      </c>
+      <c r="E19" s="34">
+        <v>31144</v>
+      </c>
+      <c r="F19" s="35" t="s">
+        <v>69</v>
+      </c>
+      <c r="G19" s="13"/>
+      <c r="H19" s="35" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A20" s="30">
+        <v>19</v>
+      </c>
+      <c r="B20" s="15">
+        <v>45948</v>
+      </c>
+      <c r="C20" s="34">
+        <v>0</v>
+      </c>
+      <c r="D20" s="34">
+        <v>11144</v>
+      </c>
+      <c r="E20" s="34">
+        <v>20000</v>
+      </c>
+      <c r="F20" s="35" t="s">
+        <v>69</v>
+      </c>
+      <c r="G20" s="13"/>
+      <c r="H20" s="35" t="s">
+        <v>77</v>
       </c>
     </row>
   </sheetData>
@@ -2107,10 +2274,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38E521D2-0E53-43DA-846D-54C42DBE6A26}">
-  <dimension ref="A1:O17"/>
+  <dimension ref="A1:O19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q20" sqref="Q20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2133,91 +2300,91 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" s="17" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="34" t="s">
+      <c r="B1" s="36" t="s">
         <v>39</v>
       </c>
-      <c r="C1" s="34" t="s">
+      <c r="C1" s="36" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="34" t="s">
+      <c r="D1" s="36" t="s">
         <v>78</v>
       </c>
-      <c r="E1" s="34" t="s">
+      <c r="E1" s="36" t="s">
         <v>80</v>
       </c>
-      <c r="F1" s="34" t="s">
+      <c r="F1" s="36" t="s">
         <v>61</v>
       </c>
-      <c r="G1" s="34" t="s">
+      <c r="G1" s="36" t="s">
         <v>82</v>
       </c>
-      <c r="H1" s="34" t="s">
+      <c r="H1" s="36" t="s">
         <v>83</v>
       </c>
-      <c r="I1" s="34" t="s">
+      <c r="I1" s="36" t="s">
         <v>62</v>
       </c>
-      <c r="J1" s="34" t="s">
+      <c r="J1" s="36" t="s">
         <v>79</v>
       </c>
-      <c r="K1" s="35" t="s">
+      <c r="K1" s="37" t="s">
         <v>84</v>
       </c>
-      <c r="L1" s="34" t="s">
+      <c r="L1" s="36" t="s">
         <v>81</v>
       </c>
-      <c r="M1" s="34" t="s">
+      <c r="M1" s="36" t="s">
         <v>91</v>
       </c>
-      <c r="N1" s="34" t="s">
+      <c r="N1" s="36" t="s">
         <v>89</v>
       </c>
-      <c r="O1" s="34" t="s">
+      <c r="O1" s="36" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A2" s="36">
+      <c r="A2" s="31">
         <v>1</v>
       </c>
-      <c r="B2" s="30">
+      <c r="B2" s="32">
         <v>45931</v>
       </c>
-      <c r="C2" s="30" t="s">
+      <c r="C2" s="32" t="s">
         <v>56</v>
       </c>
-      <c r="D2" s="37">
+      <c r="D2" s="33">
         <v>19.39</v>
       </c>
-      <c r="E2" s="37">
+      <c r="E2" s="33">
         <f>D2*1200</f>
         <v>23268</v>
       </c>
-      <c r="F2" s="37">
+      <c r="F2" s="33">
         <v>10000</v>
       </c>
-      <c r="G2" s="37">
+      <c r="G2" s="33">
         <v>1000</v>
       </c>
-      <c r="H2" s="37">
+      <c r="H2" s="33">
         <v>10000</v>
       </c>
-      <c r="I2" s="37">
+      <c r="I2" s="33">
         <v>2000</v>
       </c>
-      <c r="J2" s="37">
+      <c r="J2" s="33">
         <v>700</v>
       </c>
-      <c r="K2" s="37">
+      <c r="K2" s="33">
         <v>300</v>
       </c>
-      <c r="L2" s="37">
+      <c r="L2" s="33">
         <v>200</v>
       </c>
-      <c r="M2" s="37">
+      <c r="M2" s="33">
         <f>E2+F2+G2+H2+I2+J2+K2+L2</f>
         <v>47468</v>
       </c>
@@ -2231,95 +2398,95 @@
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A3" s="36">
+      <c r="A3" s="31">
         <v>2</v>
       </c>
-      <c r="B3" s="30">
+      <c r="B3" s="32">
         <v>45936</v>
       </c>
-      <c r="C3" s="37" t="s">
+      <c r="C3" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="D3" s="37">
+      <c r="D3" s="33">
         <v>18.54</v>
       </c>
-      <c r="E3" s="37">
-        <f t="shared" ref="E3:E16" si="0">D3*1200</f>
+      <c r="E3" s="33">
+        <f t="shared" ref="E3:E18" si="0">D3*1200</f>
         <v>22248</v>
       </c>
-      <c r="F3" s="37">
+      <c r="F3" s="33">
         <v>10000</v>
       </c>
-      <c r="G3" s="37">
+      <c r="G3" s="33">
         <v>1000</v>
       </c>
-      <c r="H3" s="37">
+      <c r="H3" s="33">
         <v>16000</v>
       </c>
-      <c r="I3" s="37">
+      <c r="I3" s="33">
         <v>2000</v>
       </c>
-      <c r="J3" s="37">
+      <c r="J3" s="33">
         <v>700</v>
       </c>
-      <c r="K3" s="37">
+      <c r="K3" s="33">
         <v>300</v>
       </c>
-      <c r="L3" s="37">
+      <c r="L3" s="33">
         <v>200</v>
       </c>
-      <c r="M3" s="37">
-        <f t="shared" ref="M3:M16" si="1">E3+F3+G3+H3+I3+J3+K3+L3</f>
+      <c r="M3" s="33">
+        <f t="shared" ref="M3:M18" si="1">E3+F3+G3+H3+I3+J3+K3+L3</f>
         <v>52448</v>
       </c>
       <c r="N3" s="38">
-        <f t="shared" ref="N3:N16" si="2">D3*2160</f>
+        <f t="shared" ref="N3:N18" si="2">D3*2160</f>
         <v>40046.400000000001</v>
       </c>
       <c r="O3" s="38">
-        <f t="shared" ref="O3:O16" si="3">N3-M3</f>
+        <f t="shared" ref="O3:O18" si="3">N3-M3</f>
         <v>-12401.599999999999</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A4" s="36">
+      <c r="A4" s="31">
         <v>3</v>
       </c>
-      <c r="B4" s="30">
+      <c r="B4" s="32">
         <v>45937</v>
       </c>
-      <c r="C4" s="37" t="s">
+      <c r="C4" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="D4" s="37">
+      <c r="D4" s="33">
         <v>27.89</v>
       </c>
-      <c r="E4" s="37">
+      <c r="E4" s="33">
         <f t="shared" si="0"/>
         <v>33468</v>
       </c>
-      <c r="F4" s="37">
+      <c r="F4" s="33">
         <v>10000</v>
       </c>
-      <c r="G4" s="37">
+      <c r="G4" s="33">
         <v>1000</v>
       </c>
-      <c r="H4" s="37">
+      <c r="H4" s="33">
         <v>10000</v>
       </c>
-      <c r="I4" s="37">
+      <c r="I4" s="33">
         <v>2000</v>
       </c>
-      <c r="J4" s="37">
+      <c r="J4" s="33">
         <v>700</v>
       </c>
-      <c r="K4" s="37">
+      <c r="K4" s="33">
         <v>300</v>
       </c>
-      <c r="L4" s="37">
+      <c r="L4" s="33">
         <v>200</v>
       </c>
-      <c r="M4" s="37">
+      <c r="M4" s="33">
         <f t="shared" si="1"/>
         <v>57668</v>
       </c>
@@ -2333,44 +2500,44 @@
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A5" s="36">
+      <c r="A5" s="31">
         <v>4</v>
       </c>
-      <c r="B5" s="30">
+      <c r="B5" s="32">
         <v>45938</v>
       </c>
-      <c r="C5" s="37" t="s">
+      <c r="C5" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="D5" s="37">
+      <c r="D5" s="33">
         <v>20</v>
       </c>
-      <c r="E5" s="37">
+      <c r="E5" s="33">
         <f t="shared" si="0"/>
         <v>24000</v>
       </c>
-      <c r="F5" s="37">
+      <c r="F5" s="33">
         <v>10000</v>
       </c>
-      <c r="G5" s="37">
+      <c r="G5" s="33">
         <v>1000</v>
       </c>
-      <c r="H5" s="37">
+      <c r="H5" s="33">
         <v>12000</v>
       </c>
-      <c r="I5" s="37">
+      <c r="I5" s="33">
         <v>2000</v>
       </c>
-      <c r="J5" s="37">
+      <c r="J5" s="33">
         <v>700</v>
       </c>
-      <c r="K5" s="37">
+      <c r="K5" s="33">
         <v>300</v>
       </c>
-      <c r="L5" s="37">
+      <c r="L5" s="33">
         <v>200</v>
       </c>
-      <c r="M5" s="37">
+      <c r="M5" s="33">
         <f t="shared" si="1"/>
         <v>50200</v>
       </c>
@@ -2384,44 +2551,44 @@
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A6" s="36">
+      <c r="A6" s="31">
         <v>5</v>
       </c>
-      <c r="B6" s="30">
+      <c r="B6" s="32">
         <v>45939</v>
       </c>
-      <c r="C6" s="37" t="s">
+      <c r="C6" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="D6" s="37">
+      <c r="D6" s="33">
         <v>20.079999999999998</v>
       </c>
-      <c r="E6" s="37">
+      <c r="E6" s="33">
         <f t="shared" si="0"/>
         <v>24095.999999999996</v>
       </c>
-      <c r="F6" s="37">
+      <c r="F6" s="33">
         <v>10000</v>
       </c>
-      <c r="G6" s="37">
+      <c r="G6" s="33">
         <v>1000</v>
       </c>
-      <c r="H6" s="37">
+      <c r="H6" s="33">
         <v>11000</v>
       </c>
-      <c r="I6" s="37">
+      <c r="I6" s="33">
         <v>2000</v>
       </c>
-      <c r="J6" s="37">
+      <c r="J6" s="33">
         <v>700</v>
       </c>
-      <c r="K6" s="37">
+      <c r="K6" s="33">
         <v>300</v>
       </c>
-      <c r="L6" s="37">
+      <c r="L6" s="33">
         <v>200</v>
       </c>
-      <c r="M6" s="37">
+      <c r="M6" s="33">
         <f t="shared" si="1"/>
         <v>49296</v>
       </c>
@@ -2435,44 +2602,44 @@
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A7" s="36">
+      <c r="A7" s="31">
         <v>6</v>
       </c>
-      <c r="B7" s="30">
+      <c r="B7" s="32">
         <v>45939</v>
       </c>
-      <c r="C7" s="37" t="s">
+      <c r="C7" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="D7" s="37">
+      <c r="D7" s="33">
         <v>27.63</v>
       </c>
-      <c r="E7" s="37">
+      <c r="E7" s="33">
         <f t="shared" si="0"/>
         <v>33156</v>
       </c>
-      <c r="F7" s="37">
+      <c r="F7" s="33">
         <v>10000</v>
       </c>
-      <c r="G7" s="37">
+      <c r="G7" s="33">
         <v>1000</v>
       </c>
-      <c r="H7" s="37">
+      <c r="H7" s="33">
         <v>10000</v>
       </c>
-      <c r="I7" s="37">
+      <c r="I7" s="33">
         <v>0</v>
       </c>
-      <c r="J7" s="37">
+      <c r="J7" s="33">
         <v>700</v>
       </c>
-      <c r="K7" s="37">
+      <c r="K7" s="33">
         <v>300</v>
       </c>
-      <c r="L7" s="37">
+      <c r="L7" s="33">
         <v>200</v>
       </c>
-      <c r="M7" s="37">
+      <c r="M7" s="33">
         <f t="shared" si="1"/>
         <v>55356</v>
       </c>
@@ -2486,44 +2653,44 @@
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A8" s="36">
+      <c r="A8" s="31">
         <v>7</v>
       </c>
-      <c r="B8" s="30">
+      <c r="B8" s="32">
         <v>45939</v>
       </c>
-      <c r="C8" s="37" t="s">
+      <c r="C8" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="D8" s="37">
+      <c r="D8" s="33">
         <v>27.09</v>
       </c>
-      <c r="E8" s="37">
+      <c r="E8" s="33">
         <f t="shared" si="0"/>
         <v>32508</v>
       </c>
-      <c r="F8" s="37">
+      <c r="F8" s="33">
         <v>10000</v>
       </c>
-      <c r="G8" s="37">
+      <c r="G8" s="33">
         <v>1000</v>
       </c>
-      <c r="H8" s="37">
+      <c r="H8" s="33">
         <v>10000</v>
       </c>
-      <c r="I8" s="37">
+      <c r="I8" s="33">
         <v>0</v>
       </c>
-      <c r="J8" s="37">
+      <c r="J8" s="33">
         <v>700</v>
       </c>
-      <c r="K8" s="37">
+      <c r="K8" s="33">
         <v>300</v>
       </c>
-      <c r="L8" s="37">
+      <c r="L8" s="33">
         <v>200</v>
       </c>
-      <c r="M8" s="37">
+      <c r="M8" s="33">
         <f t="shared" si="1"/>
         <v>54708</v>
       </c>
@@ -2537,44 +2704,44 @@
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A9" s="36">
+      <c r="A9" s="31">
         <v>8</v>
       </c>
-      <c r="B9" s="30">
+      <c r="B9" s="32">
         <v>45940</v>
       </c>
-      <c r="C9" s="37" t="s">
+      <c r="C9" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="D9" s="37">
+      <c r="D9" s="33">
         <v>26.22</v>
       </c>
-      <c r="E9" s="37">
+      <c r="E9" s="33">
         <f t="shared" si="0"/>
         <v>31464</v>
       </c>
-      <c r="F9" s="37">
+      <c r="F9" s="33">
         <v>10000</v>
       </c>
-      <c r="G9" s="37">
+      <c r="G9" s="33">
         <v>1000</v>
       </c>
-      <c r="H9" s="37">
+      <c r="H9" s="33">
         <v>10000</v>
       </c>
-      <c r="I9" s="37">
+      <c r="I9" s="33">
         <v>2000</v>
       </c>
-      <c r="J9" s="37">
+      <c r="J9" s="33">
         <v>700</v>
       </c>
-      <c r="K9" s="37">
+      <c r="K9" s="33">
         <v>300</v>
       </c>
-      <c r="L9" s="37">
+      <c r="L9" s="33">
         <v>200</v>
       </c>
-      <c r="M9" s="37">
+      <c r="M9" s="33">
         <f t="shared" si="1"/>
         <v>55664</v>
       </c>
@@ -2588,44 +2755,44 @@
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A10" s="36">
+      <c r="A10" s="31">
         <v>9</v>
       </c>
-      <c r="B10" s="30">
+      <c r="B10" s="32">
         <v>45940</v>
       </c>
-      <c r="C10" s="37" t="s">
+      <c r="C10" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="D10" s="37">
+      <c r="D10" s="33">
         <v>26.32</v>
       </c>
-      <c r="E10" s="37">
+      <c r="E10" s="33">
         <f t="shared" si="0"/>
         <v>31584</v>
       </c>
-      <c r="F10" s="37">
+      <c r="F10" s="33">
         <v>10000</v>
       </c>
-      <c r="G10" s="37">
+      <c r="G10" s="33">
         <v>1000</v>
       </c>
-      <c r="H10" s="37">
+      <c r="H10" s="33">
         <v>10000</v>
       </c>
-      <c r="I10" s="37">
+      <c r="I10" s="33">
         <v>0</v>
       </c>
-      <c r="J10" s="37">
+      <c r="J10" s="33">
         <v>700</v>
       </c>
-      <c r="K10" s="37">
+      <c r="K10" s="33">
         <v>300</v>
       </c>
-      <c r="L10" s="37">
+      <c r="L10" s="33">
         <v>200</v>
       </c>
-      <c r="M10" s="37">
+      <c r="M10" s="33">
         <f t="shared" si="1"/>
         <v>53784</v>
       </c>
@@ -2639,44 +2806,44 @@
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A11" s="36">
+      <c r="A11" s="31">
         <v>10</v>
       </c>
-      <c r="B11" s="30">
+      <c r="B11" s="32">
         <v>45940</v>
       </c>
-      <c r="C11" s="37" t="s">
+      <c r="C11" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="D11" s="37">
+      <c r="D11" s="33">
         <v>20.37</v>
       </c>
-      <c r="E11" s="37">
+      <c r="E11" s="33">
         <f t="shared" si="0"/>
         <v>24444</v>
       </c>
-      <c r="F11" s="37">
+      <c r="F11" s="33">
         <v>10000</v>
       </c>
-      <c r="G11" s="37">
+      <c r="G11" s="33">
         <v>1000</v>
       </c>
-      <c r="H11" s="37">
+      <c r="H11" s="33">
         <v>11000</v>
       </c>
-      <c r="I11" s="37">
+      <c r="I11" s="33">
         <v>0</v>
       </c>
-      <c r="J11" s="37">
+      <c r="J11" s="33">
         <v>700</v>
       </c>
-      <c r="K11" s="37">
+      <c r="K11" s="33">
         <v>300</v>
       </c>
-      <c r="L11" s="37">
+      <c r="L11" s="33">
         <v>200</v>
       </c>
-      <c r="M11" s="37">
+      <c r="M11" s="33">
         <f t="shared" si="1"/>
         <v>47644</v>
       </c>
@@ -2690,44 +2857,44 @@
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A12" s="36">
+      <c r="A12" s="31">
         <v>11</v>
       </c>
-      <c r="B12" s="30">
+      <c r="B12" s="32">
         <v>45942</v>
       </c>
-      <c r="C12" s="37" t="s">
+      <c r="C12" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="D12" s="37">
+      <c r="D12" s="33">
         <v>23.04</v>
       </c>
-      <c r="E12" s="37">
+      <c r="E12" s="33">
         <f t="shared" si="0"/>
         <v>27648</v>
       </c>
-      <c r="F12" s="37">
+      <c r="F12" s="33">
         <v>10000</v>
       </c>
-      <c r="G12" s="37">
+      <c r="G12" s="33">
         <v>1000</v>
       </c>
-      <c r="H12" s="37">
+      <c r="H12" s="33">
         <v>11000</v>
       </c>
-      <c r="I12" s="37">
+      <c r="I12" s="33">
         <v>2000</v>
       </c>
-      <c r="J12" s="37">
+      <c r="J12" s="33">
         <v>700</v>
       </c>
-      <c r="K12" s="37">
+      <c r="K12" s="33">
         <v>300</v>
       </c>
-      <c r="L12" s="37">
+      <c r="L12" s="33">
         <v>200</v>
       </c>
-      <c r="M12" s="37">
+      <c r="M12" s="33">
         <f t="shared" si="1"/>
         <v>52848</v>
       </c>
@@ -2741,44 +2908,44 @@
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A13" s="36">
+      <c r="A13" s="31">
         <v>12</v>
       </c>
-      <c r="B13" s="30">
+      <c r="B13" s="32">
         <v>45944</v>
       </c>
-      <c r="C13" s="37" t="s">
+      <c r="C13" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="D13" s="37">
+      <c r="D13" s="33">
         <v>20.04</v>
       </c>
-      <c r="E13" s="37">
+      <c r="E13" s="33">
         <f t="shared" si="0"/>
         <v>24048</v>
       </c>
-      <c r="F13" s="37">
+      <c r="F13" s="33">
         <v>10000</v>
       </c>
-      <c r="G13" s="37">
+      <c r="G13" s="33">
         <v>1000</v>
       </c>
-      <c r="H13" s="37">
+      <c r="H13" s="33">
         <v>12000</v>
       </c>
-      <c r="I13" s="37">
+      <c r="I13" s="33">
         <v>2000</v>
       </c>
-      <c r="J13" s="37">
+      <c r="J13" s="33">
         <v>700</v>
       </c>
-      <c r="K13" s="37">
+      <c r="K13" s="33">
         <v>300</v>
       </c>
-      <c r="L13" s="37">
+      <c r="L13" s="33">
         <v>200</v>
       </c>
-      <c r="M13" s="37">
+      <c r="M13" s="33">
         <f t="shared" si="1"/>
         <v>50248</v>
       </c>
@@ -2792,44 +2959,44 @@
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A14" s="36">
+      <c r="A14" s="31">
         <v>13</v>
       </c>
-      <c r="B14" s="30">
+      <c r="B14" s="32">
         <v>45946</v>
       </c>
-      <c r="C14" s="37" t="s">
+      <c r="C14" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="D14" s="37">
+      <c r="D14" s="33">
         <v>19.829999999999998</v>
       </c>
-      <c r="E14" s="37">
+      <c r="E14" s="33">
         <f t="shared" si="0"/>
         <v>23795.999999999996</v>
       </c>
-      <c r="F14" s="37">
+      <c r="F14" s="33">
         <v>10000</v>
       </c>
-      <c r="G14" s="37">
+      <c r="G14" s="33">
         <v>1000</v>
       </c>
-      <c r="H14" s="43">
+      <c r="H14" s="33">
         <v>10000</v>
       </c>
-      <c r="I14" s="37">
+      <c r="I14" s="33">
         <v>2000</v>
       </c>
-      <c r="J14" s="37">
+      <c r="J14" s="33">
         <v>700</v>
       </c>
-      <c r="K14" s="37">
+      <c r="K14" s="33">
         <v>300</v>
       </c>
-      <c r="L14" s="37">
+      <c r="L14" s="33">
         <v>200</v>
       </c>
-      <c r="M14" s="37">
+      <c r="M14" s="33">
         <f>E14+F14+G14+H14+I14+J14+K14+L14</f>
         <v>47996</v>
       </c>
@@ -2843,44 +3010,44 @@
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A15" s="36">
+      <c r="A15" s="31">
         <v>14</v>
       </c>
-      <c r="B15" s="30">
+      <c r="B15" s="32">
         <v>45946</v>
       </c>
-      <c r="C15" s="37" t="s">
+      <c r="C15" s="33" t="s">
         <v>102</v>
       </c>
-      <c r="D15" s="37">
+      <c r="D15" s="33">
         <v>28.52</v>
       </c>
-      <c r="E15" s="37">
+      <c r="E15" s="33">
         <f t="shared" si="0"/>
         <v>34224</v>
       </c>
-      <c r="F15" s="37">
+      <c r="F15" s="33">
         <v>10000</v>
       </c>
-      <c r="G15" s="37">
+      <c r="G15" s="33">
         <v>1000</v>
       </c>
-      <c r="H15" s="43">
+      <c r="H15" s="33">
         <v>10000</v>
       </c>
-      <c r="I15" s="37">
+      <c r="I15" s="33">
         <v>2000</v>
       </c>
-      <c r="J15" s="37">
+      <c r="J15" s="33">
         <v>700</v>
       </c>
-      <c r="K15" s="37">
+      <c r="K15" s="33">
         <v>300</v>
       </c>
-      <c r="L15" s="37">
+      <c r="L15" s="33">
         <v>200</v>
       </c>
-      <c r="M15" s="37">
+      <c r="M15" s="33">
         <f t="shared" si="1"/>
         <v>58424</v>
       </c>
@@ -2894,44 +3061,44 @@
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A16" s="36">
+      <c r="A16" s="31">
         <v>15</v>
       </c>
-      <c r="B16" s="30">
+      <c r="B16" s="32">
         <v>45946</v>
       </c>
-      <c r="C16" s="37" t="s">
+      <c r="C16" s="33" t="s">
         <v>101</v>
       </c>
-      <c r="D16" s="37">
+      <c r="D16" s="33">
         <v>27.64</v>
       </c>
-      <c r="E16" s="37">
+      <c r="E16" s="33">
         <f t="shared" si="0"/>
         <v>33168</v>
       </c>
-      <c r="F16" s="37">
+      <c r="F16" s="33">
         <v>10000</v>
       </c>
-      <c r="G16" s="37">
+      <c r="G16" s="33">
         <v>1000</v>
       </c>
-      <c r="H16" s="43">
+      <c r="H16" s="33">
         <v>10000</v>
       </c>
-      <c r="I16" s="37">
+      <c r="I16" s="33">
         <v>2000</v>
       </c>
-      <c r="J16" s="37">
+      <c r="J16" s="33">
         <v>700</v>
       </c>
-      <c r="K16" s="37">
+      <c r="K16" s="33">
         <v>300</v>
       </c>
-      <c r="L16" s="37">
+      <c r="L16" s="33">
         <v>200</v>
       </c>
-      <c r="M16" s="37">
+      <c r="M16" s="33">
         <f t="shared" si="1"/>
         <v>57368</v>
       </c>
@@ -2944,66 +3111,168 @@
         <v>2334.4000000000015</v>
       </c>
     </row>
-    <row r="17" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="39">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A17" s="31">
+        <v>16</v>
+      </c>
+      <c r="B17" s="32">
+        <v>45947</v>
+      </c>
+      <c r="C17" s="33" t="s">
+        <v>108</v>
+      </c>
+      <c r="D17" s="33">
+        <v>26.88</v>
+      </c>
+      <c r="E17" s="33">
+        <f t="shared" si="0"/>
+        <v>32256</v>
+      </c>
+      <c r="F17" s="33">
+        <v>10000</v>
+      </c>
+      <c r="G17" s="33">
+        <v>1000</v>
+      </c>
+      <c r="H17" s="33">
+        <v>10000</v>
+      </c>
+      <c r="I17" s="33">
+        <v>2000</v>
+      </c>
+      <c r="J17" s="33">
+        <v>700</v>
+      </c>
+      <c r="K17" s="33">
+        <v>300</v>
+      </c>
+      <c r="L17" s="33">
+        <v>200</v>
+      </c>
+      <c r="M17" s="33">
+        <f t="shared" si="1"/>
+        <v>56456</v>
+      </c>
+      <c r="N17" s="38">
+        <f t="shared" si="2"/>
+        <v>58060.799999999996</v>
+      </c>
+      <c r="O17" s="38">
+        <f t="shared" si="3"/>
+        <v>1604.7999999999956</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A18" s="31">
+        <v>17</v>
+      </c>
+      <c r="B18" s="32">
+        <v>45947</v>
+      </c>
+      <c r="C18" s="33" t="s">
+        <v>109</v>
+      </c>
+      <c r="D18" s="33">
+        <v>23.33</v>
+      </c>
+      <c r="E18" s="33">
+        <f t="shared" si="0"/>
+        <v>27995.999999999996</v>
+      </c>
+      <c r="F18" s="33">
+        <v>10000</v>
+      </c>
+      <c r="G18" s="33">
+        <v>1000</v>
+      </c>
+      <c r="H18" s="33">
+        <v>10000</v>
+      </c>
+      <c r="I18" s="33">
+        <v>2000</v>
+      </c>
+      <c r="J18" s="33">
+        <v>700</v>
+      </c>
+      <c r="K18" s="33">
+        <v>300</v>
+      </c>
+      <c r="L18" s="33">
+        <v>200</v>
+      </c>
+      <c r="M18" s="33">
+        <f t="shared" si="1"/>
+        <v>52196</v>
+      </c>
+      <c r="N18" s="38">
+        <f t="shared" si="2"/>
+        <v>50392.799999999996</v>
+      </c>
+      <c r="O18" s="38">
+        <f t="shared" si="3"/>
+        <v>-1803.2000000000044</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="39">
         <v>100</v>
       </c>
-      <c r="B17" s="40" t="s">
+      <c r="B19" s="40" t="s">
         <v>63</v>
       </c>
-      <c r="C17" s="40"/>
-      <c r="D17" s="41">
-        <f>SUM(D2:D16)</f>
-        <v>352.59999999999997</v>
-      </c>
-      <c r="E17" s="41">
-        <f>SUM(E2:E16)</f>
-        <v>423120</v>
-      </c>
-      <c r="F17" s="41">
-        <f>SUM(F2:F16)</f>
-        <v>150000</v>
-      </c>
-      <c r="G17" s="41">
-        <f>SUM(G2:G16)</f>
-        <v>15000</v>
-      </c>
-      <c r="H17" s="41">
-        <f>SUM(H2:H16)</f>
-        <v>163000</v>
-      </c>
-      <c r="I17" s="41">
-        <f>SUM(I2:I16)</f>
-        <v>22000</v>
-      </c>
-      <c r="J17" s="41">
-        <f>SUM(J2:J16)</f>
-        <v>10500</v>
-      </c>
-      <c r="K17" s="41">
-        <f>SUM(K2:K16)</f>
-        <v>4500</v>
-      </c>
-      <c r="L17" s="41">
-        <f>SUM(L2:L16)</f>
-        <v>3000</v>
-      </c>
-      <c r="M17" s="41">
-        <f>SUM(M2:M16)</f>
-        <v>791120</v>
-      </c>
-      <c r="N17" s="42">
-        <f>SUM(N2:N16)</f>
-        <v>761616.00000000012</v>
-      </c>
-      <c r="O17" s="42">
-        <f>SUM(O2:O16)</f>
-        <v>-29504.000000000007</v>
+      <c r="C19" s="40"/>
+      <c r="D19" s="41">
+        <f>SUM(D2:D18)</f>
+        <v>402.80999999999995</v>
+      </c>
+      <c r="E19" s="41">
+        <f>SUM(E2:E18)</f>
+        <v>483372</v>
+      </c>
+      <c r="F19" s="41">
+        <f>SUM(F2:F18)</f>
+        <v>170000</v>
+      </c>
+      <c r="G19" s="41">
+        <f>SUM(G2:G18)</f>
+        <v>17000</v>
+      </c>
+      <c r="H19" s="41">
+        <f>SUM(H2:H18)</f>
+        <v>183000</v>
+      </c>
+      <c r="I19" s="41">
+        <f>SUM(I2:I18)</f>
+        <v>26000</v>
+      </c>
+      <c r="J19" s="41">
+        <f>SUM(J2:J18)</f>
+        <v>11900</v>
+      </c>
+      <c r="K19" s="41">
+        <f>SUM(K2:K18)</f>
+        <v>5100</v>
+      </c>
+      <c r="L19" s="41">
+        <f>SUM(L2:L18)</f>
+        <v>3400</v>
+      </c>
+      <c r="M19" s="41">
+        <f>SUM(M2:M18)</f>
+        <v>899772</v>
+      </c>
+      <c r="N19" s="42">
+        <f>SUM(N2:N18)</f>
+        <v>870069.60000000021</v>
+      </c>
+      <c r="O19" s="42">
+        <f>SUM(O2:O18)</f>
+        <v>-29702.400000000016</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B19:C19"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Nellore_Data.xlsx
+++ b/Nellore_Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Nellore\project-shakthi-first-excel-app\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F14B7C2D-947D-4C5D-9113-3D209908E9C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24B982DA-26F2-40D5-98AD-AF7E6C90D03F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="92">
   <si>
     <t>S No</t>
   </si>
@@ -698,7 +698,7 @@
   <dimension ref="A1:W1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I25" sqref="I25"/>
+      <selection activeCell="H29" sqref="H29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.59765625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1561,7 +1561,9 @@
         <f t="shared" si="0"/>
         <v>998646</v>
       </c>
-      <c r="L22" s="9"/>
+      <c r="L22" s="9" t="s">
+        <v>55</v>
+      </c>
       <c r="M22" s="12"/>
       <c r="N22" s="12"/>
       <c r="O22" s="12"/>
